--- a/generated_docs/WR_89856203_WeekEnding_081025.xlsx
+++ b/generated_docs/WR_89856203_WeekEnding_081025.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I103"/>
+  <dimension ref="A2:I139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/16/2025 12:48 AM</t>
+          <t>Report Generated On: 08/18/2025 09:48 PM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>20555.96</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>216.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +799,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>216.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -833,7 +833,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>216.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -843,7 +843,7 @@
         </is>
       </c>
       <c r="H19" s="16" t="n">
-        <v>648.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -926,7 +926,7 @@
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>350.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -960,7 +960,7 @@
       </c>
       <c r="G25" s="13" t="inlineStr"/>
       <c r="H25" s="14" t="n">
-        <v>95.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -994,7 +994,7 @@
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>63.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1028,7 +1028,7 @@
       </c>
       <c r="G27" s="13" t="inlineStr"/>
       <c r="H27" s="14" t="n">
-        <v>60.87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="G28" s="10" t="inlineStr"/>
       <c r="H28" s="11" t="n">
-        <v>20.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="B29" s="12" t="inlineStr">
         <is>
-          <t>CND-S2O</t>
+          <t>CND-HLC2</t>
         </is>
       </c>
       <c r="C29" s="12" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="D29" s="12" t="inlineStr">
         <is>
-          <t>CND,Stirrup #2 Open</t>
+          <t>CND,Hot Line clamp #6-#2</t>
         </is>
       </c>
       <c r="E29" s="12" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="G29" s="13" t="inlineStr"/>
       <c r="H29" s="14" t="n">
-        <v>55.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="B30" s="9" t="inlineStr">
         <is>
-          <t>CON-10-AAA-1-B</t>
+          <t>CND-S2O</t>
         </is>
       </c>
       <c r="C30" s="9" t="inlineStr">
@@ -1117,20 +1117,20 @@
       </c>
       <c r="D30" s="9" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare</t>
+          <t>CND,Stirrup #2 Open</t>
         </is>
       </c>
       <c r="E30" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F30" s="10" t="n">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="G30" s="10" t="inlineStr"/>
       <c r="H30" s="11" t="n">
-        <v>102.96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1141,7 +1141,7 @@
       </c>
       <c r="B31" s="12" t="inlineStr">
         <is>
-          <t>CON-10-AAA-1-B-REEL</t>
+          <t>CON-10-AAA-1-B</t>
         </is>
       </c>
       <c r="C31" s="12" t="inlineStr">
@@ -1151,7 +1151,7 @@
       </c>
       <c r="D31" s="12" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare</t>
         </is>
       </c>
       <c r="E31" s="12" t="inlineStr">
@@ -1160,11 +1160,11 @@
         </is>
       </c>
       <c r="F31" s="13" t="n">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="G31" s="13" t="inlineStr"/>
       <c r="H31" s="14" t="n">
-        <v>308.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1175,17 +1175,17 @@
       </c>
       <c r="B32" s="9" t="inlineStr">
         <is>
-          <t>CON-4-AAA-1-B</t>
+          <t>CON-10-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C32" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D32" s="9" t="inlineStr">
         <is>
-          <t>CON,#4 AWG,Alum Alloy,One,Bare</t>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
         </is>
       </c>
       <c r="E32" s="9" t="inlineStr">
@@ -1194,11 +1194,11 @@
         </is>
       </c>
       <c r="F32" s="10" t="n">
-        <v>552</v>
+        <v>132</v>
       </c>
       <c r="G32" s="10" t="inlineStr"/>
       <c r="H32" s="11" t="n">
-        <v>513.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1209,30 +1209,30 @@
       </c>
       <c r="B33" s="12" t="inlineStr">
         <is>
-          <t>DEG-10-SPA</t>
+          <t>CON-4-AAA-1-B</t>
         </is>
       </c>
       <c r="C33" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D33" s="12" t="inlineStr">
         <is>
-          <t>DEG,1/0,Slack Span Alum</t>
+          <t>CON,#4 AWG,Alum Alloy,One,Bare</t>
         </is>
       </c>
       <c r="E33" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F33" s="13" t="n">
-        <v>1</v>
+        <v>552</v>
       </c>
       <c r="G33" s="13" t="inlineStr"/>
       <c r="H33" s="14" t="n">
-        <v>286.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1243,7 +1243,7 @@
       </c>
       <c r="B34" s="9" t="inlineStr">
         <is>
-          <t>DEG-10-SPAJ</t>
+          <t>DEG-10-SPA</t>
         </is>
       </c>
       <c r="C34" s="9" t="inlineStr">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="D34" s="9" t="inlineStr">
         <is>
-          <t>DEG, 1/0,Slack Span Alum for J-Neck Ins</t>
+          <t>DEG,1/0,Slack Span Alum</t>
         </is>
       </c>
       <c r="E34" s="9" t="inlineStr">
@@ -1262,11 +1262,11 @@
         </is>
       </c>
       <c r="F34" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G34" s="10" t="inlineStr"/>
       <c r="H34" s="11" t="n">
-        <v>858.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="B35" s="12" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-2-S-X</t>
+          <t>DEG-10-SPAJ</t>
         </is>
       </c>
       <c r="C35" s="12" t="inlineStr">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="D35" s="12" t="inlineStr">
         <is>
-          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
+          <t>DEG, 1/0,Slack Span Alum for J-Neck Ins</t>
         </is>
       </c>
       <c r="E35" s="12" t="inlineStr">
@@ -1296,11 +1296,11 @@
         </is>
       </c>
       <c r="F35" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G35" s="13" t="inlineStr"/>
       <c r="H35" s="14" t="n">
-        <v>446</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="B36" s="9" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>EQL-1-4-C-2-S-X</t>
         </is>
       </c>
       <c r="C36" s="9" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="D36" s="9" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
         </is>
       </c>
       <c r="E36" s="9" t="inlineStr">
@@ -1330,11 +1330,11 @@
         </is>
       </c>
       <c r="F36" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G36" s="10" t="inlineStr"/>
       <c r="H36" s="11" t="n">
-        <v>110.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1345,7 +1345,7 @@
       </c>
       <c r="B37" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C37" s="12" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="D37" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E37" s="12" t="inlineStr">
@@ -1364,11 +1364,11 @@
         </is>
       </c>
       <c r="F37" s="13" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G37" s="13" t="inlineStr"/>
       <c r="H37" s="14" t="n">
-        <v>565.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1379,7 +1379,7 @@
       </c>
       <c r="B38" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>GND-MD</t>
         </is>
       </c>
       <c r="C38" s="9" t="inlineStr">
@@ -1389,7 +1389,7 @@
       </c>
       <c r="D38" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>GND,Wire Mldg Only</t>
         </is>
       </c>
       <c r="E38" s="9" t="inlineStr">
@@ -1398,11 +1398,11 @@
         </is>
       </c>
       <c r="F38" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G38" s="10" t="inlineStr"/>
       <c r="H38" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1413,7 +1413,7 @@
       </c>
       <c r="B39" s="12" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C39" s="12" t="inlineStr">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="D39" s="12" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E39" s="12" t="inlineStr">
@@ -1432,11 +1432,11 @@
         </is>
       </c>
       <c r="F39" s="13" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G39" s="13" t="inlineStr"/>
       <c r="H39" s="14" t="n">
-        <v>188.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="B40" s="9" t="inlineStr">
         <is>
-          <t>POL-50-2</t>
+          <t>JPR-10-AAA-1-B</t>
         </is>
       </c>
       <c r="C40" s="9" t="inlineStr">
@@ -1457,7 +1457,7 @@
       </c>
       <c r="D40" s="9" t="inlineStr">
         <is>
-          <t>Pole,50ft,Class 2</t>
+          <t>JPR,#1/0 AWG,Alum Alloy,One,Bare</t>
         </is>
       </c>
       <c r="E40" s="9" t="inlineStr">
@@ -1466,11 +1466,11 @@
         </is>
       </c>
       <c r="F40" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G40" s="10" t="inlineStr"/>
       <c r="H40" s="11" t="n">
-        <v>631.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1481,7 +1481,7 @@
       </c>
       <c r="B41" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C41" s="12" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="D41" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E41" s="12" t="inlineStr">
@@ -1500,11 +1500,11 @@
         </is>
       </c>
       <c r="F41" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G41" s="13" t="inlineStr"/>
       <c r="H41" s="14" t="n">
-        <v>110.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="B42" s="9" t="inlineStr">
         <is>
-          <t>SAA-DE-20</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C42" s="9" t="inlineStr">
@@ -1525,7 +1525,7 @@
       </c>
       <c r="D42" s="9" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E42" s="9" t="inlineStr">
@@ -1534,11 +1534,11 @@
         </is>
       </c>
       <c r="F42" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G42" s="10" t="inlineStr"/>
       <c r="H42" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1549,7 +1549,7 @@
       </c>
       <c r="B43" s="12" t="inlineStr">
         <is>
-          <t>XCO-15-100-7</t>
+          <t>PLD-EYE</t>
         </is>
       </c>
       <c r="C43" s="12" t="inlineStr">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="D43" s="12" t="inlineStr">
         <is>
-          <t>XCO,15kVPolymer,100 Amp,7kA</t>
+          <t>PLD,Eyebolt Deadend</t>
         </is>
       </c>
       <c r="E43" s="12" t="inlineStr">
@@ -1568,32 +1568,32 @@
         </is>
       </c>
       <c r="F43" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G43" s="13" t="inlineStr"/>
       <c r="H43" s="14" t="n">
-        <v>124.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="9" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B44" s="9" t="inlineStr">
         <is>
-          <t>ARM-8S-60S</t>
+          <t>POL-50-2</t>
         </is>
       </c>
       <c r="C44" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D44" s="9" t="inlineStr">
         <is>
-          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
+          <t>Pole,50ft,Class 2</t>
         </is>
       </c>
       <c r="E44" s="9" t="inlineStr">
@@ -1606,28 +1606,28 @@
       </c>
       <c r="G44" s="10" t="inlineStr"/>
       <c r="H44" s="11" t="n">
-        <v>61.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="12" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B45" s="12" t="inlineStr">
         <is>
-          <t>BKT-AC18-F</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C45" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D45" s="12" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E45" s="12" t="inlineStr">
@@ -1640,28 +1640,28 @@
       </c>
       <c r="G45" s="13" t="inlineStr"/>
       <c r="H45" s="14" t="n">
-        <v>34.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="9" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B46" s="9" t="inlineStr">
         <is>
-          <t>BKT-PI24-F</t>
+          <t>SAA-DE-20</t>
         </is>
       </c>
       <c r="C46" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D46" s="9" t="inlineStr">
         <is>
-          <t>BKT,Pin insulator 24in,Fbrgls</t>
+          <t>SAA,DE Clamp #4-2/0</t>
         </is>
       </c>
       <c r="E46" s="9" t="inlineStr">
@@ -1670,32 +1670,32 @@
         </is>
       </c>
       <c r="F46" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G46" s="10" t="inlineStr"/>
       <c r="H46" s="11" t="n">
-        <v>52.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="12" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B47" s="12" t="inlineStr">
         <is>
-          <t>CND-S2O</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C47" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D47" s="12" t="inlineStr">
         <is>
-          <t>CND,Stirrup #2 Open</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E47" s="12" t="inlineStr">
@@ -1704,32 +1704,32 @@
         </is>
       </c>
       <c r="F47" s="13" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="G47" s="13" t="inlineStr"/>
       <c r="H47" s="14" t="n">
-        <v>12.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="9" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B48" s="9" t="inlineStr">
         <is>
-          <t>DEG-2-SPAJ</t>
+          <t>XCO-15-100-7</t>
         </is>
       </c>
       <c r="C48" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D48" s="9" t="inlineStr">
         <is>
-          <t>DEG,#2,Slack span Alum for J-neck</t>
+          <t>XCO,15kVPolymer,100 Amp,7kA</t>
         </is>
       </c>
       <c r="E48" s="9" t="inlineStr">
@@ -1738,11 +1738,11 @@
         </is>
       </c>
       <c r="F48" s="10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G48" s="10" t="inlineStr"/>
       <c r="H48" s="11" t="n">
-        <v>285.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="B49" s="12" t="inlineStr">
         <is>
-          <t>DEG-4-SPA</t>
+          <t>ARM-8S-60S</t>
         </is>
       </c>
       <c r="C49" s="12" t="inlineStr">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="D49" s="12" t="inlineStr">
         <is>
-          <t>DEG,#4,Slack Span Alum</t>
+          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
         </is>
       </c>
       <c r="E49" s="12" t="inlineStr">
@@ -1776,7 +1776,7 @@
       </c>
       <c r="G49" s="13" t="inlineStr"/>
       <c r="H49" s="14" t="n">
-        <v>95.15000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1787,7 +1787,7 @@
       </c>
       <c r="B50" s="9" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-2-S-X</t>
+          <t>BKT-AC18-F</t>
         </is>
       </c>
       <c r="C50" s="9" t="inlineStr">
@@ -1797,7 +1797,7 @@
       </c>
       <c r="D50" s="9" t="inlineStr">
         <is>
-          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
         </is>
       </c>
       <c r="E50" s="9" t="inlineStr">
@@ -1810,7 +1810,7 @@
       </c>
       <c r="G50" s="10" t="inlineStr"/>
       <c r="H50" s="11" t="n">
-        <v>232</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1821,7 +1821,7 @@
       </c>
       <c r="B51" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>BKT-PI24-F</t>
         </is>
       </c>
       <c r="C51" s="12" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="D51" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>BKT,Pin insulator 24in,Fbrgls</t>
         </is>
       </c>
       <c r="E51" s="12" t="inlineStr">
@@ -1840,11 +1840,11 @@
         </is>
       </c>
       <c r="F51" s="13" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G51" s="13" t="inlineStr"/>
       <c r="H51" s="14" t="n">
-        <v>186.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1855,7 +1855,7 @@
       </c>
       <c r="B52" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>CND-HLC2</t>
         </is>
       </c>
       <c r="C52" s="9" t="inlineStr">
@@ -1865,7 +1865,7 @@
       </c>
       <c r="D52" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>CND,Hot Line clamp #6-#2</t>
         </is>
       </c>
       <c r="E52" s="9" t="inlineStr">
@@ -1874,11 +1874,11 @@
         </is>
       </c>
       <c r="F52" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G52" s="10" t="inlineStr"/>
       <c r="H52" s="11" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1889,7 +1889,7 @@
       </c>
       <c r="B53" s="12" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>CND-S2O</t>
         </is>
       </c>
       <c r="C53" s="12" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="D53" s="12" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>CND,Stirrup #2 Open</t>
         </is>
       </c>
       <c r="E53" s="12" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="G53" s="13" t="inlineStr"/>
       <c r="H53" s="14" t="n">
-        <v>62.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1923,7 +1923,7 @@
       </c>
       <c r="B54" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>DEG-2-SPAJ</t>
         </is>
       </c>
       <c r="C54" s="9" t="inlineStr">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="D54" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>DEG,#2,Slack span Alum for J-neck</t>
         </is>
       </c>
       <c r="E54" s="9" t="inlineStr">
@@ -1942,11 +1942,11 @@
         </is>
       </c>
       <c r="F54" s="10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G54" s="10" t="inlineStr"/>
       <c r="H54" s="11" t="n">
-        <v>34.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1957,7 +1957,7 @@
       </c>
       <c r="B55" s="12" t="inlineStr">
         <is>
-          <t>SAA-DE-20</t>
+          <t>DEG-4-SPA</t>
         </is>
       </c>
       <c r="C55" s="12" t="inlineStr">
@@ -1967,7 +1967,7 @@
       </c>
       <c r="D55" s="12" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0</t>
+          <t>DEG,#4,Slack Span Alum</t>
         </is>
       </c>
       <c r="E55" s="12" t="inlineStr">
@@ -1976,11 +1976,11 @@
         </is>
       </c>
       <c r="F55" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G55" s="13" t="inlineStr"/>
       <c r="H55" s="14" t="n">
-        <v>34.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1991,7 +1991,7 @@
       </c>
       <c r="B56" s="9" t="inlineStr">
         <is>
-          <t>XCO-15-100-7</t>
+          <t>EQL-1-4-C-2-S-X</t>
         </is>
       </c>
       <c r="C56" s="9" t="inlineStr">
@@ -2001,7 +2001,7 @@
       </c>
       <c r="D56" s="9" t="inlineStr">
         <is>
-          <t>XCO,15kVPolymer,100 Amp,7kA</t>
+          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
         </is>
       </c>
       <c r="E56" s="9" t="inlineStr">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="G56" s="10" t="inlineStr"/>
       <c r="H56" s="11" t="n">
-        <v>53.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2025,7 +2025,7 @@
       </c>
       <c r="B57" s="12" t="inlineStr">
         <is>
-          <t>XFR-25-72-120-1B</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C57" s="12" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="D57" s="12" t="inlineStr">
         <is>
-          <t>XFR,25KVA,7.2/12.4kVY,120/240,1BG</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E57" s="12" t="inlineStr">
@@ -2044,32 +2044,32 @@
         </is>
       </c>
       <c r="F57" s="13" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G57" s="13" t="inlineStr"/>
       <c r="H57" s="14" t="n">
-        <v>318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="9" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B58" s="9" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-DL</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C58" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D58" s="9" t="inlineStr">
         <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,DE Light</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E58" s="9" t="inlineStr">
@@ -2082,28 +2082,28 @@
       </c>
       <c r="G58" s="10" t="inlineStr"/>
       <c r="H58" s="11" t="n">
-        <v>350.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="12" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B59" s="12" t="inlineStr">
         <is>
-          <t>CNC-SNB-2</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C59" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D59" s="12" t="inlineStr">
         <is>
-          <t>CNC,Splice Non-Tension Bare,#6-#2</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E59" s="12" t="inlineStr">
@@ -2112,100 +2112,100 @@
         </is>
       </c>
       <c r="F59" s="13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G59" s="13" t="inlineStr"/>
       <c r="H59" s="14" t="n">
-        <v>81.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="9" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B60" s="9" t="inlineStr">
         <is>
-          <t>CON-10-AAA-1-B-REEL</t>
+          <t>PLD-EYE</t>
         </is>
       </c>
       <c r="C60" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D60" s="9" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+          <t>PLD,Eyebolt Deadend</t>
         </is>
       </c>
       <c r="E60" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F60" s="10" t="n">
-        <v>459</v>
+        <v>2</v>
       </c>
       <c r="G60" s="10" t="inlineStr"/>
       <c r="H60" s="11" t="n">
-        <v>1074.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="12" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B61" s="12" t="inlineStr">
         <is>
-          <t>CON-10-AAA-3-P</t>
+          <t>POL-50-3</t>
         </is>
       </c>
       <c r="C61" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D61" s="12" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,Three,Poly</t>
+          <t>Pole,50ft,Class 3</t>
         </is>
       </c>
       <c r="E61" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F61" s="13" t="n">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="G61" s="13" t="inlineStr"/>
       <c r="H61" s="14" t="n">
-        <v>110.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="9" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B62" s="9" t="inlineStr">
         <is>
-          <t>DEC-20AL</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C62" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D62" s="9" t="inlineStr">
         <is>
-          <t>DEC,#4 - #2/0 AA,AL,AS</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E62" s="9" t="inlineStr">
@@ -2214,32 +2214,32 @@
         </is>
       </c>
       <c r="F62" s="10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G62" s="10" t="inlineStr"/>
       <c r="H62" s="11" t="n">
-        <v>858.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="12" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B63" s="12" t="inlineStr">
         <is>
-          <t>DEG-10-SPA</t>
+          <t>SAA-DE-20</t>
         </is>
       </c>
       <c r="C63" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D63" s="12" t="inlineStr">
         <is>
-          <t>DEG,1/0,Slack Span Alum</t>
+          <t>SAA,DE Clamp #4-2/0</t>
         </is>
       </c>
       <c r="E63" s="12" t="inlineStr">
@@ -2248,32 +2248,32 @@
         </is>
       </c>
       <c r="F63" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G63" s="13" t="inlineStr"/>
       <c r="H63" s="14" t="n">
-        <v>286.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="9" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B64" s="9" t="inlineStr">
         <is>
-          <t>DEG-10-SPAJ</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C64" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D64" s="9" t="inlineStr">
         <is>
-          <t>DEG, 1/0,Slack Span Alum for J-Neck Ins</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E64" s="9" t="inlineStr">
@@ -2282,32 +2282,32 @@
         </is>
       </c>
       <c r="F64" s="10" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="G64" s="10" t="inlineStr"/>
       <c r="H64" s="11" t="n">
-        <v>858.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="12" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B65" s="12" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>XCO-15-100-7</t>
         </is>
       </c>
       <c r="C65" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D65" s="12" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>XCO,15kVPolymer,100 Amp,7kA</t>
         </is>
       </c>
       <c r="E65" s="12" t="inlineStr">
@@ -2316,32 +2316,32 @@
         </is>
       </c>
       <c r="F65" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G65" s="13" t="inlineStr"/>
       <c r="H65" s="14" t="n">
-        <v>110.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="9" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B66" s="9" t="inlineStr">
         <is>
-          <t>GYF-38-D-78P-EP</t>
+          <t>XFR-25-72-120-1B</t>
         </is>
       </c>
       <c r="C66" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D66" s="9" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
+          <t>XFR,25KVA,7.2/12.4kVY,120/240,1BG</t>
         </is>
       </c>
       <c r="E66" s="9" t="inlineStr">
@@ -2354,7 +2354,7 @@
       </c>
       <c r="G66" s="10" t="inlineStr"/>
       <c r="H66" s="11" t="n">
-        <v>158.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="B67" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>ARM-8SF-GN-DL</t>
         </is>
       </c>
       <c r="C67" s="12" t="inlineStr">
@@ -2375,7 +2375,7 @@
       </c>
       <c r="D67" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,DE Light</t>
         </is>
       </c>
       <c r="E67" s="12" t="inlineStr">
@@ -2388,7 +2388,7 @@
       </c>
       <c r="G67" s="13" t="inlineStr"/>
       <c r="H67" s="14" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2399,7 +2399,7 @@
       </c>
       <c r="B68" s="9" t="inlineStr">
         <is>
-          <t>SAA-DE-20</t>
+          <t>CNC-SNB-2</t>
         </is>
       </c>
       <c r="C68" s="9" t="inlineStr">
@@ -2409,7 +2409,7 @@
       </c>
       <c r="D68" s="9" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0</t>
+          <t>CNC,Splice Non-Tension Bare,#6-#2</t>
         </is>
       </c>
       <c r="E68" s="9" t="inlineStr">
@@ -2418,100 +2418,100 @@
         </is>
       </c>
       <c r="F68" s="10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G68" s="10" t="inlineStr"/>
       <c r="H68" s="11" t="n">
-        <v>110.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="12" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B69" s="12" t="inlineStr">
         <is>
-          <t>ANC-DHM-10-84-D1</t>
+          <t>CON-10-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C69" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D69" s="12" t="inlineStr">
         <is>
-          <t>ANC,Dbl Hlx Mach,10in,84in,Db Eye 1in</t>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
         </is>
       </c>
       <c r="E69" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F69" s="13" t="n">
-        <v>1</v>
+        <v>459</v>
       </c>
       <c r="G69" s="13" t="inlineStr"/>
       <c r="H69" s="14" t="n">
-        <v>28.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="9" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B70" s="9" t="inlineStr">
         <is>
-          <t>ARM-8D-60S</t>
+          <t>CON-10-AAA-3-P</t>
         </is>
       </c>
       <c r="C70" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D70" s="9" t="inlineStr">
         <is>
-          <t>ARM,8ft Double Wood,60in Sgl.Wd</t>
+          <t>CON,#1/0 AWG,Alum Alloy,Three,Poly</t>
         </is>
       </c>
       <c r="E70" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F70" s="10" t="n">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="G70" s="10" t="inlineStr"/>
       <c r="H70" s="11" t="n">
-        <v>73.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="12" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B71" s="12" t="inlineStr">
         <is>
-          <t>ARM-8S-60S</t>
+          <t>DEC-20AL</t>
         </is>
       </c>
       <c r="C71" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D71" s="12" t="inlineStr">
         <is>
-          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
+          <t>DEC,#4 - #2/0 AA,AL,AS</t>
         </is>
       </c>
       <c r="E71" s="12" t="inlineStr">
@@ -2520,100 +2520,100 @@
         </is>
       </c>
       <c r="F71" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G71" s="13" t="inlineStr"/>
       <c r="H71" s="14" t="n">
-        <v>61.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="9" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B72" s="9" t="inlineStr">
         <is>
-          <t>CON-4-AAA-1-B</t>
+          <t>DEG-10-SPA</t>
         </is>
       </c>
       <c r="C72" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D72" s="9" t="inlineStr">
         <is>
-          <t>CON,#4 AWG,Alum Alloy,One,Bare</t>
+          <t>DEG,1/0,Slack Span Alum</t>
         </is>
       </c>
       <c r="E72" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F72" s="10" t="n">
-        <v>544</v>
+        <v>1</v>
       </c>
       <c r="G72" s="10" t="inlineStr"/>
       <c r="H72" s="11" t="n">
-        <v>505.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="12" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B73" s="12" t="inlineStr">
         <is>
-          <t>CON-4-AAA-1-W</t>
+          <t>DEG-10-SPAJ</t>
         </is>
       </c>
       <c r="C73" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D73" s="12" t="inlineStr">
         <is>
-          <t>CON,#4 AWG,Alum Alloy,One,WP</t>
+          <t>DEG, 1/0,Slack Span Alum for J-Neck Ins</t>
         </is>
       </c>
       <c r="E73" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F73" s="13" t="n">
-        <v>272</v>
+        <v>3</v>
       </c>
       <c r="G73" s="13" t="inlineStr"/>
       <c r="H73" s="14" t="n">
-        <v>252.96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="9" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B74" s="9" t="inlineStr">
         <is>
-          <t>DEC-20AL</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C74" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D74" s="9" t="inlineStr">
         <is>
-          <t>DEC,#4 - #2/0 AA,AL,AS</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E74" s="9" t="inlineStr">
@@ -2622,32 +2622,32 @@
         </is>
       </c>
       <c r="F74" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G74" s="10" t="inlineStr"/>
       <c r="H74" s="11" t="n">
-        <v>285.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="12" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B75" s="12" t="inlineStr">
         <is>
-          <t>DEG-2-SPAJ</t>
+          <t>GND-MD</t>
         </is>
       </c>
       <c r="C75" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D75" s="12" t="inlineStr">
         <is>
-          <t>DEG,#2,Slack span Alum for J-neck</t>
+          <t>GND,Wire Mldg Only</t>
         </is>
       </c>
       <c r="E75" s="12" t="inlineStr">
@@ -2656,32 +2656,32 @@
         </is>
       </c>
       <c r="F75" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G75" s="13" t="inlineStr"/>
       <c r="H75" s="14" t="n">
-        <v>285.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="9" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B76" s="9" t="inlineStr">
         <is>
-          <t>DEG-4-SPA</t>
+          <t>GYD-MPY</t>
         </is>
       </c>
       <c r="C76" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D76" s="9" t="inlineStr">
         <is>
-          <t>DEG,#4,Slack Span Alum</t>
+          <t>GYD,Marker-Plastic-Yellow</t>
         </is>
       </c>
       <c r="E76" s="9" t="inlineStr">
@@ -2694,13 +2694,13 @@
       </c>
       <c r="G76" s="10" t="inlineStr"/>
       <c r="H76" s="11" t="n">
-        <v>95.15000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="12" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B77" s="12" t="inlineStr">
@@ -2710,7 +2710,7 @@
       </c>
       <c r="C77" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D77" s="12" t="inlineStr">
@@ -2728,62 +2728,62 @@
       </c>
       <c r="G77" s="13" t="inlineStr"/>
       <c r="H77" s="14" t="n">
-        <v>71.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="9" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B78" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>GYW-38</t>
         </is>
       </c>
       <c r="C78" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D78" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>GYW,3/8 in. EHS (15,400 lbs)</t>
         </is>
       </c>
       <c r="E78" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F78" s="10" t="n">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="G78" s="10" t="inlineStr"/>
       <c r="H78" s="11" t="n">
-        <v>155.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="12" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B79" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>JPR-10-AAA-1-B</t>
         </is>
       </c>
       <c r="C79" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D79" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>JPR,#1/0 AWG,Alum Alloy,One,Bare</t>
         </is>
       </c>
       <c r="E79" s="12" t="inlineStr">
@@ -2792,32 +2792,32 @@
         </is>
       </c>
       <c r="F79" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G79" s="13" t="inlineStr"/>
       <c r="H79" s="14" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="9" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B80" s="9" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>PLD-EYE</t>
         </is>
       </c>
       <c r="C80" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D80" s="9" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>PLD,Eyebolt Deadend</t>
         </is>
       </c>
       <c r="E80" s="9" t="inlineStr">
@@ -2826,32 +2826,32 @@
         </is>
       </c>
       <c r="F80" s="10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G80" s="10" t="inlineStr"/>
       <c r="H80" s="11" t="n">
-        <v>124.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="12" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B81" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>PLD-EYE-ARM</t>
         </is>
       </c>
       <c r="C81" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D81" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>PLD, Eyebolt Deadend, Arm</t>
         </is>
       </c>
       <c r="E81" s="12" t="inlineStr">
@@ -2860,32 +2860,32 @@
         </is>
       </c>
       <c r="F81" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G81" s="13" t="inlineStr"/>
       <c r="H81" s="14" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="9" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B82" s="9" t="inlineStr">
         <is>
-          <t>SAA-DE-20</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C82" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D82" s="9" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E82" s="9" t="inlineStr">
@@ -2894,22 +2894,22 @@
         </is>
       </c>
       <c r="F82" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G82" s="10" t="inlineStr"/>
       <c r="H82" s="11" t="n">
-        <v>51.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="12" t="inlineStr">
         <is>
-          <t>Point 17</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B83" s="12" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-DL</t>
+          <t>SAA-DE-20</t>
         </is>
       </c>
       <c r="C83" s="12" t="inlineStr">
@@ -2919,7 +2919,7 @@
       </c>
       <c r="D83" s="12" t="inlineStr">
         <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,DE Light</t>
+          <t>SAA,DE Clamp #4-2/0</t>
         </is>
       </c>
       <c r="E83" s="12" t="inlineStr">
@@ -2928,22 +2928,22 @@
         </is>
       </c>
       <c r="F83" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G83" s="13" t="inlineStr"/>
       <c r="H83" s="14" t="n">
-        <v>350.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="9" t="inlineStr">
         <is>
-          <t>Point 17</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B84" s="9" t="inlineStr">
         <is>
-          <t>CNC-SNB-40</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C84" s="9" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="D84" s="9" t="inlineStr">
         <is>
-          <t>CNC,Splice Non-Tension Bare,#1/0-#4/0</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E84" s="9" t="inlineStr">
@@ -2962,32 +2962,32 @@
         </is>
       </c>
       <c r="F84" s="10" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G84" s="10" t="inlineStr"/>
       <c r="H84" s="11" t="n">
-        <v>60.87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="12" t="inlineStr">
         <is>
-          <t>Point 17</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B85" s="12" t="inlineStr">
         <is>
-          <t>DEC-20AL</t>
+          <t>ANC-DHM-10-84-D1</t>
         </is>
       </c>
       <c r="C85" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D85" s="12" t="inlineStr">
         <is>
-          <t>DEC,#4 - #2/0 AA,AL,AS</t>
+          <t>ANC,Dbl Hlx Mach,10in,84in,Db Eye 1in</t>
         </is>
       </c>
       <c r="E85" s="12" t="inlineStr">
@@ -2996,32 +2996,32 @@
         </is>
       </c>
       <c r="F85" s="13" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G85" s="13" t="inlineStr"/>
       <c r="H85" s="14" t="n">
-        <v>1717.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="9" t="inlineStr">
         <is>
-          <t>Point 17</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B86" s="9" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>ARM-8D-60S</t>
         </is>
       </c>
       <c r="C86" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D86" s="9" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>ARM,8ft Double Wood,60in Sgl.Wd</t>
         </is>
       </c>
       <c r="E86" s="9" t="inlineStr">
@@ -3034,28 +3034,28 @@
       </c>
       <c r="G86" s="10" t="inlineStr"/>
       <c r="H86" s="11" t="n">
-        <v>110.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="12" t="inlineStr">
         <is>
-          <t>Point 17</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B87" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>ARM-8S-60S</t>
         </is>
       </c>
       <c r="C87" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D87" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
         </is>
       </c>
       <c r="E87" s="12" t="inlineStr">
@@ -3064,32 +3064,32 @@
         </is>
       </c>
       <c r="F87" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G87" s="13" t="inlineStr"/>
       <c r="H87" s="14" t="n">
-        <v>282.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="9" t="inlineStr">
         <is>
-          <t>Point 17</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B88" s="9" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>ARM-BR-60S</t>
         </is>
       </c>
       <c r="C88" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D88" s="9" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>ARM,Brace only Wood,60in Sgl.Wd</t>
         </is>
       </c>
       <c r="E88" s="9" t="inlineStr">
@@ -3098,56 +3098,56 @@
         </is>
       </c>
       <c r="F88" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G88" s="10" t="inlineStr"/>
       <c r="H88" s="11" t="n">
-        <v>282.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="12" t="inlineStr">
         <is>
-          <t>Point 17</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B89" s="12" t="inlineStr">
         <is>
-          <t>SAA-DE-20</t>
+          <t>CON-4-AAA-1-B</t>
         </is>
       </c>
       <c r="C89" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D89" s="12" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0</t>
+          <t>CON,#4 AWG,Alum Alloy,One,Bare</t>
         </is>
       </c>
       <c r="E89" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F89" s="13" t="n">
-        <v>6</v>
+        <v>544</v>
       </c>
       <c r="G89" s="13" t="inlineStr"/>
       <c r="H89" s="14" t="n">
-        <v>331.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="9" t="inlineStr">
         <is>
-          <t>Point 18</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B90" s="9" t="inlineStr">
         <is>
-          <t>ARM-8D-60S</t>
+          <t>CON-4-AAA-1-W</t>
         </is>
       </c>
       <c r="C90" s="9" t="inlineStr">
@@ -3157,26 +3157,26 @@
       </c>
       <c r="D90" s="9" t="inlineStr">
         <is>
-          <t>ARM,8ft Double Wood,60in Sgl.Wd</t>
+          <t>CON,#4 AWG,Alum Alloy,One,WP</t>
         </is>
       </c>
       <c r="E90" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F90" s="10" t="n">
-        <v>1</v>
+        <v>272</v>
       </c>
       <c r="G90" s="10" t="inlineStr"/>
       <c r="H90" s="11" t="n">
-        <v>73.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="12" t="inlineStr">
         <is>
-          <t>Point 18</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B91" s="12" t="inlineStr">
@@ -3200,22 +3200,22 @@
         </is>
       </c>
       <c r="F91" s="13" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G91" s="13" t="inlineStr"/>
       <c r="H91" s="14" t="n">
-        <v>570.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="9" t="inlineStr">
         <is>
-          <t>Point 18</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B92" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>DEG-2-SPAJ</t>
         </is>
       </c>
       <c r="C92" s="9" t="inlineStr">
@@ -3225,7 +3225,7 @@
       </c>
       <c r="D92" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>DEG,#2,Slack span Alum for J-neck</t>
         </is>
       </c>
       <c r="E92" s="9" t="inlineStr">
@@ -3238,18 +3238,18 @@
       </c>
       <c r="G92" s="10" t="inlineStr"/>
       <c r="H92" s="11" t="n">
-        <v>93.23999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="12" t="inlineStr">
         <is>
-          <t>Point 18</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B93" s="12" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>DEG-4-SPA</t>
         </is>
       </c>
       <c r="C93" s="12" t="inlineStr">
@@ -3259,7 +3259,7 @@
       </c>
       <c r="D93" s="12" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>DEG,#4,Slack Span Alum</t>
         </is>
       </c>
       <c r="E93" s="12" t="inlineStr">
@@ -3268,22 +3268,22 @@
         </is>
       </c>
       <c r="F93" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G93" s="13" t="inlineStr"/>
       <c r="H93" s="14" t="n">
-        <v>93.23999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="9" t="inlineStr">
         <is>
-          <t>Point 18</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B94" s="9" t="inlineStr">
         <is>
-          <t>SAA-DE-20</t>
+          <t>GYD-MPY</t>
         </is>
       </c>
       <c r="C94" s="9" t="inlineStr">
@@ -3293,7 +3293,7 @@
       </c>
       <c r="D94" s="9" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0</t>
+          <t>GYD,Marker-Plastic-Yellow</t>
         </is>
       </c>
       <c r="E94" s="9" t="inlineStr">
@@ -3302,91 +3302,202 @@
         </is>
       </c>
       <c r="F94" s="10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G94" s="10" t="inlineStr"/>
       <c r="H94" s="11" t="n">
-        <v>68.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="15" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="H95" s="16" t="n">
-        <v>16664.8</v>
+      <c r="A95" s="12" t="inlineStr">
+        <is>
+          <t>Point 16</t>
+        </is>
+      </c>
+      <c r="B95" s="12" t="inlineStr">
+        <is>
+          <t>GYF-38-D-78P-EP</t>
+        </is>
+      </c>
+      <c r="C95" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D95" s="12" t="inlineStr">
+        <is>
+          <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
+        </is>
+      </c>
+      <c r="E95" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F95" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G95" s="13" t="inlineStr"/>
+      <c r="H95" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="9" t="inlineStr">
+        <is>
+          <t>Point 16</t>
+        </is>
+      </c>
+      <c r="B96" s="9" t="inlineStr">
+        <is>
+          <t>GYW-38</t>
+        </is>
+      </c>
+      <c r="C96" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D96" s="9" t="inlineStr">
+        <is>
+          <t>GYW,3/8 in. EHS (15,400 lbs)</t>
+        </is>
+      </c>
+      <c r="E96" s="9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F96" s="10" t="n">
+        <v>80</v>
+      </c>
+      <c r="G96" s="10" t="inlineStr"/>
+      <c r="H96" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="12" t="inlineStr">
+        <is>
+          <t>Point 16</t>
+        </is>
+      </c>
+      <c r="B97" s="12" t="inlineStr">
+        <is>
+          <t>INS-15-D-S-C</t>
+        </is>
+      </c>
+      <c r="C97" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D97" s="12" t="inlineStr">
+        <is>
+          <t>INS,15kV,Deadend,Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E97" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F97" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G97" s="13" t="inlineStr"/>
+      <c r="H97" s="14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="7" t="inlineStr">
-        <is>
-          <t>Friday (08/08/2025)</t>
-        </is>
+      <c r="A98" s="9" t="inlineStr">
+        <is>
+          <t>Point 16</t>
+        </is>
+      </c>
+      <c r="B98" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C98" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D98" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E98" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F98" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G98" s="10" t="inlineStr"/>
+      <c r="H98" s="11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="8" t="inlineStr">
-        <is>
-          <t>Point Number</t>
-        </is>
-      </c>
-      <c r="B99" s="8" t="inlineStr">
-        <is>
-          <t>Billable Unit Code</t>
-        </is>
-      </c>
-      <c r="C99" s="8" t="inlineStr">
-        <is>
-          <t>Work Type</t>
-        </is>
-      </c>
-      <c r="D99" s="8" t="inlineStr">
-        <is>
-          <t>Unit Description</t>
-        </is>
-      </c>
-      <c r="E99" s="8" t="inlineStr">
-        <is>
-          <t>Unit of Measure</t>
-        </is>
-      </c>
-      <c r="F99" s="8" t="inlineStr">
-        <is>
-          <t># Units</t>
-        </is>
-      </c>
-      <c r="G99" s="8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H99" s="8" t="inlineStr">
-        <is>
-          <t>Pricing</t>
-        </is>
+      <c r="A99" s="12" t="inlineStr">
+        <is>
+          <t>Point 16</t>
+        </is>
+      </c>
+      <c r="B99" s="12" t="inlineStr">
+        <is>
+          <t>PIN-15-PTP-K</t>
+        </is>
+      </c>
+      <c r="C99" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D99" s="12" t="inlineStr">
+        <is>
+          <t>Pin,15kV,Pole top,Contaminated</t>
+        </is>
+      </c>
+      <c r="E99" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F99" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G99" s="13" t="inlineStr"/>
+      <c r="H99" s="14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="9" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B100" s="9" t="inlineStr">
         <is>
-          <t>PLA-HDIG</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C100" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D100" s="9" t="inlineStr">
         <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E100" s="9" t="inlineStr">
@@ -3395,32 +3506,32 @@
         </is>
       </c>
       <c r="F100" s="10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G100" s="10" t="inlineStr"/>
       <c r="H100" s="11" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="12" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B101" s="12" t="inlineStr">
         <is>
-          <t>PLA-HDIG</t>
+          <t>PLD-EYE</t>
         </is>
       </c>
       <c r="C101" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D101" s="12" t="inlineStr">
         <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
+          <t>PLD,Eyebolt Deadend</t>
         </is>
       </c>
       <c r="E101" s="12" t="inlineStr">
@@ -3429,32 +3540,32 @@
         </is>
       </c>
       <c r="F101" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G101" s="13" t="inlineStr"/>
       <c r="H101" s="14" t="n">
-        <v>1297.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="9" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B102" s="9" t="inlineStr">
         <is>
-          <t>PLA-HDIG</t>
+          <t>PLD-EYE-ARM</t>
         </is>
       </c>
       <c r="C102" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D102" s="9" t="inlineStr">
         <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
+          <t>PLD, Eyebolt Deadend, Arm</t>
         </is>
       </c>
       <c r="E102" s="9" t="inlineStr">
@@ -3463,37 +3574,1150 @@
         </is>
       </c>
       <c r="F102" s="10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G102" s="10" t="inlineStr"/>
       <c r="H102" s="11" t="n">
-        <v>1297.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="15" t="inlineStr">
+      <c r="A103" s="12" t="inlineStr">
+        <is>
+          <t>Point 16</t>
+        </is>
+      </c>
+      <c r="B103" s="12" t="inlineStr">
+        <is>
+          <t>POL-40-3</t>
+        </is>
+      </c>
+      <c r="C103" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D103" s="12" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 3</t>
+        </is>
+      </c>
+      <c r="E103" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F103" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" s="13" t="inlineStr"/>
+      <c r="H103" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="9" t="inlineStr">
+        <is>
+          <t>Point 16</t>
+        </is>
+      </c>
+      <c r="B104" s="9" t="inlineStr">
+        <is>
+          <t>SAA-3-CV</t>
+        </is>
+      </c>
+      <c r="C104" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D104" s="9" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis</t>
+        </is>
+      </c>
+      <c r="E104" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F104" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G104" s="10" t="inlineStr"/>
+      <c r="H104" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="12" t="inlineStr">
+        <is>
+          <t>Point 16</t>
+        </is>
+      </c>
+      <c r="B105" s="12" t="inlineStr">
+        <is>
+          <t>SAA-DE-20</t>
+        </is>
+      </c>
+      <c r="C105" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D105" s="12" t="inlineStr">
+        <is>
+          <t>SAA,DE Clamp #4-2/0</t>
+        </is>
+      </c>
+      <c r="E105" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F105" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G105" s="13" t="inlineStr"/>
+      <c r="H105" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="9" t="inlineStr">
+        <is>
+          <t>Point 16</t>
+        </is>
+      </c>
+      <c r="B106" s="9" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C106" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D106" s="9" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E106" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F106" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="G106" s="10" t="inlineStr"/>
+      <c r="H106" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="12" t="inlineStr">
+        <is>
+          <t>Point 17</t>
+        </is>
+      </c>
+      <c r="B107" s="12" t="inlineStr">
+        <is>
+          <t>ARM-8SF-GN-DL</t>
+        </is>
+      </c>
+      <c r="C107" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D107" s="12" t="inlineStr">
+        <is>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,DE Light</t>
+        </is>
+      </c>
+      <c r="E107" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F107" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G107" s="13" t="inlineStr"/>
+      <c r="H107" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="9" t="inlineStr">
+        <is>
+          <t>Point 17</t>
+        </is>
+      </c>
+      <c r="B108" s="9" t="inlineStr">
+        <is>
+          <t>CNC-SNB-40</t>
+        </is>
+      </c>
+      <c r="C108" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D108" s="9" t="inlineStr">
+        <is>
+          <t>CNC,Splice Non-Tension Bare,#1/0-#4/0</t>
+        </is>
+      </c>
+      <c r="E108" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F108" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G108" s="10" t="inlineStr"/>
+      <c r="H108" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="12" t="inlineStr">
+        <is>
+          <t>Point 17</t>
+        </is>
+      </c>
+      <c r="B109" s="12" t="inlineStr">
+        <is>
+          <t>DEC-20AL</t>
+        </is>
+      </c>
+      <c r="C109" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D109" s="12" t="inlineStr">
+        <is>
+          <t>DEC,#4 - #2/0 AA,AL,AS</t>
+        </is>
+      </c>
+      <c r="E109" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F109" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="G109" s="13" t="inlineStr"/>
+      <c r="H109" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="9" t="inlineStr">
+        <is>
+          <t>Point 17</t>
+        </is>
+      </c>
+      <c r="B110" s="9" t="inlineStr">
+        <is>
+          <t>GND-CR-4</t>
+        </is>
+      </c>
+      <c r="C110" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D110" s="9" t="inlineStr">
+        <is>
+          <t>GND,Cu Clad Rod,#4</t>
+        </is>
+      </c>
+      <c r="E110" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F110" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G110" s="10" t="inlineStr"/>
+      <c r="H110" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="12" t="inlineStr">
+        <is>
+          <t>Point 17</t>
+        </is>
+      </c>
+      <c r="B111" s="12" t="inlineStr">
+        <is>
+          <t>GND-MD</t>
+        </is>
+      </c>
+      <c r="C111" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D111" s="12" t="inlineStr">
+        <is>
+          <t>GND,Wire Mldg Only</t>
+        </is>
+      </c>
+      <c r="E111" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F111" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G111" s="13" t="inlineStr"/>
+      <c r="H111" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="9" t="inlineStr">
+        <is>
+          <t>Point 17</t>
+        </is>
+      </c>
+      <c r="B112" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-D-S-C</t>
+        </is>
+      </c>
+      <c r="C112" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D112" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Deadend,Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E112" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F112" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="G112" s="10" t="inlineStr"/>
+      <c r="H112" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="12" t="inlineStr">
+        <is>
+          <t>Point 17</t>
+        </is>
+      </c>
+      <c r="B113" s="12" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C113" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D113" s="12" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E113" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F113" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G113" s="13" t="inlineStr"/>
+      <c r="H113" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="9" t="inlineStr">
+        <is>
+          <t>Point 17</t>
+        </is>
+      </c>
+      <c r="B114" s="9" t="inlineStr">
+        <is>
+          <t>PIN-XAA</t>
+        </is>
+      </c>
+      <c r="C114" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D114" s="9" t="inlineStr">
+        <is>
+          <t>Pin,Crossarm,8in</t>
+        </is>
+      </c>
+      <c r="E114" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F114" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G114" s="10" t="inlineStr"/>
+      <c r="H114" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="12" t="inlineStr">
+        <is>
+          <t>Point 17</t>
+        </is>
+      </c>
+      <c r="B115" s="12" t="inlineStr">
+        <is>
+          <t>PLD-EYE</t>
+        </is>
+      </c>
+      <c r="C115" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D115" s="12" t="inlineStr">
+        <is>
+          <t>PLD,Eyebolt Deadend</t>
+        </is>
+      </c>
+      <c r="E115" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F115" s="13" t="n">
+        <v>8</v>
+      </c>
+      <c r="G115" s="13" t="inlineStr"/>
+      <c r="H115" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="9" t="inlineStr">
+        <is>
+          <t>Point 17</t>
+        </is>
+      </c>
+      <c r="B116" s="9" t="inlineStr">
+        <is>
+          <t>PLD-EYE-ARM</t>
+        </is>
+      </c>
+      <c r="C116" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D116" s="9" t="inlineStr">
+        <is>
+          <t>PLD, Eyebolt Deadend, Arm</t>
+        </is>
+      </c>
+      <c r="E116" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F116" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G116" s="10" t="inlineStr"/>
+      <c r="H116" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="12" t="inlineStr">
+        <is>
+          <t>Point 17</t>
+        </is>
+      </c>
+      <c r="B117" s="12" t="inlineStr">
+        <is>
+          <t>SAA-DE-20</t>
+        </is>
+      </c>
+      <c r="C117" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D117" s="12" t="inlineStr">
+        <is>
+          <t>SAA,DE Clamp #4-2/0</t>
+        </is>
+      </c>
+      <c r="E117" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F117" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="G117" s="13" t="inlineStr"/>
+      <c r="H117" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="9" t="inlineStr">
+        <is>
+          <t>Point 17</t>
+        </is>
+      </c>
+      <c r="B118" s="9" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C118" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D118" s="9" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E118" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F118" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="G118" s="10" t="inlineStr"/>
+      <c r="H118" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="12" t="inlineStr">
+        <is>
+          <t>Point 17</t>
+        </is>
+      </c>
+      <c r="B119" s="12" t="inlineStr">
+        <is>
+          <t>TIE-6-ALH-F</t>
+        </is>
+      </c>
+      <c r="C119" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D119" s="12" t="inlineStr">
+        <is>
+          <t>TIE,6 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E119" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F119" s="13" t="n">
+        <v>12</v>
+      </c>
+      <c r="G119" s="13" t="inlineStr"/>
+      <c r="H119" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="9" t="inlineStr">
+        <is>
+          <t>Point 18</t>
+        </is>
+      </c>
+      <c r="B120" s="9" t="inlineStr">
+        <is>
+          <t>ARM-8D-60S</t>
+        </is>
+      </c>
+      <c r="C120" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D120" s="9" t="inlineStr">
+        <is>
+          <t>ARM,8ft Double Wood,60in Sgl.Wd</t>
+        </is>
+      </c>
+      <c r="E120" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F120" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G120" s="10" t="inlineStr"/>
+      <c r="H120" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="12" t="inlineStr">
+        <is>
+          <t>Point 18</t>
+        </is>
+      </c>
+      <c r="B121" s="12" t="inlineStr">
+        <is>
+          <t>ARM-BR-60S</t>
+        </is>
+      </c>
+      <c r="C121" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D121" s="12" t="inlineStr">
+        <is>
+          <t>ARM,Brace only Wood,60in Sgl.Wd</t>
+        </is>
+      </c>
+      <c r="E121" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F121" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G121" s="13" t="inlineStr"/>
+      <c r="H121" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="9" t="inlineStr">
+        <is>
+          <t>Point 18</t>
+        </is>
+      </c>
+      <c r="B122" s="9" t="inlineStr">
+        <is>
+          <t>DEC-20AL</t>
+        </is>
+      </c>
+      <c r="C122" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D122" s="9" t="inlineStr">
+        <is>
+          <t>DEC,#4 - #2/0 AA,AL,AS</t>
+        </is>
+      </c>
+      <c r="E122" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F122" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="G122" s="10" t="inlineStr"/>
+      <c r="H122" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="12" t="inlineStr">
+        <is>
+          <t>Point 18</t>
+        </is>
+      </c>
+      <c r="B123" s="12" t="inlineStr">
+        <is>
+          <t>INS-15-D-S-C</t>
+        </is>
+      </c>
+      <c r="C123" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D123" s="12" t="inlineStr">
+        <is>
+          <t>INS,15kV,Deadend,Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E123" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F123" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="G123" s="13" t="inlineStr"/>
+      <c r="H123" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="9" t="inlineStr">
+        <is>
+          <t>Point 18</t>
+        </is>
+      </c>
+      <c r="B124" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C124" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D124" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E124" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F124" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G124" s="10" t="inlineStr"/>
+      <c r="H124" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="12" t="inlineStr">
+        <is>
+          <t>Point 18</t>
+        </is>
+      </c>
+      <c r="B125" s="12" t="inlineStr">
+        <is>
+          <t>PIN-XAA</t>
+        </is>
+      </c>
+      <c r="C125" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D125" s="12" t="inlineStr">
+        <is>
+          <t>Pin,Crossarm,8in</t>
+        </is>
+      </c>
+      <c r="E125" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F125" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G125" s="13" t="inlineStr"/>
+      <c r="H125" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="9" t="inlineStr">
+        <is>
+          <t>Point 18</t>
+        </is>
+      </c>
+      <c r="B126" s="9" t="inlineStr">
+        <is>
+          <t>PLD-EYE</t>
+        </is>
+      </c>
+      <c r="C126" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D126" s="9" t="inlineStr">
+        <is>
+          <t>PLD,Eyebolt Deadend</t>
+        </is>
+      </c>
+      <c r="E126" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F126" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G126" s="10" t="inlineStr"/>
+      <c r="H126" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="12" t="inlineStr">
+        <is>
+          <t>Point 18</t>
+        </is>
+      </c>
+      <c r="B127" s="12" t="inlineStr">
+        <is>
+          <t>PLD-EYE-ARM</t>
+        </is>
+      </c>
+      <c r="C127" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D127" s="12" t="inlineStr">
+        <is>
+          <t>PLD, Eyebolt Deadend, Arm</t>
+        </is>
+      </c>
+      <c r="E127" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F127" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="G127" s="13" t="inlineStr"/>
+      <c r="H127" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="9" t="inlineStr">
+        <is>
+          <t>Point 18</t>
+        </is>
+      </c>
+      <c r="B128" s="9" t="inlineStr">
+        <is>
+          <t>POL-40-5</t>
+        </is>
+      </c>
+      <c r="C128" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D128" s="9" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 5</t>
+        </is>
+      </c>
+      <c r="E128" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F128" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G128" s="10" t="inlineStr"/>
+      <c r="H128" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="12" t="inlineStr">
+        <is>
+          <t>Point 18</t>
+        </is>
+      </c>
+      <c r="B129" s="12" t="inlineStr">
+        <is>
+          <t>SAA-DE-20</t>
+        </is>
+      </c>
+      <c r="C129" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D129" s="12" t="inlineStr">
+        <is>
+          <t>SAA,DE Clamp #4-2/0</t>
+        </is>
+      </c>
+      <c r="E129" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F129" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="G129" s="13" t="inlineStr"/>
+      <c r="H129" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="9" t="inlineStr">
+        <is>
+          <t>Point 18</t>
+        </is>
+      </c>
+      <c r="B130" s="9" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C130" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D130" s="9" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E130" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F130" s="10" t="n">
+        <v>18</v>
+      </c>
+      <c r="G130" s="10" t="inlineStr"/>
+      <c r="H130" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H103" s="16" t="n">
-        <v>3242.65</v>
+      <c r="H131" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="7" t="inlineStr">
+        <is>
+          <t>Friday (08/08/2025)</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="8" t="inlineStr">
+        <is>
+          <t>Point Number</t>
+        </is>
+      </c>
+      <c r="B135" s="8" t="inlineStr">
+        <is>
+          <t>Billable Unit Code</t>
+        </is>
+      </c>
+      <c r="C135" s="8" t="inlineStr">
+        <is>
+          <t>Work Type</t>
+        </is>
+      </c>
+      <c r="D135" s="8" t="inlineStr">
+        <is>
+          <t>Unit Description</t>
+        </is>
+      </c>
+      <c r="E135" s="8" t="inlineStr">
+        <is>
+          <t>Unit of Measure</t>
+        </is>
+      </c>
+      <c r="F135" s="8" t="inlineStr">
+        <is>
+          <t># Units</t>
+        </is>
+      </c>
+      <c r="G135" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H135" s="8" t="inlineStr">
+        <is>
+          <t>Pricing</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="9" t="inlineStr">
+        <is>
+          <t>Point 11</t>
+        </is>
+      </c>
+      <c r="B136" s="9" t="inlineStr">
+        <is>
+          <t>PLA-HDIG</t>
+        </is>
+      </c>
+      <c r="C136" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D136" s="9" t="inlineStr">
+        <is>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
+        </is>
+      </c>
+      <c r="E136" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F136" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G136" s="10" t="inlineStr"/>
+      <c r="H136" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="12" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B137" s="12" t="inlineStr">
+        <is>
+          <t>PLA-HDIG</t>
+        </is>
+      </c>
+      <c r="C137" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D137" s="12" t="inlineStr">
+        <is>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
+        </is>
+      </c>
+      <c r="E137" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F137" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G137" s="13" t="inlineStr"/>
+      <c r="H137" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="9" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B138" s="9" t="inlineStr">
+        <is>
+          <t>PLA-HDIG</t>
+        </is>
+      </c>
+      <c r="C138" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D138" s="9" t="inlineStr">
+        <is>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
+        </is>
+      </c>
+      <c r="E138" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F138" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G138" s="10" t="inlineStr"/>
+      <c r="H138" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="15" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="H139" s="16" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
     <mergeCell ref="G10:I10"/>
+    <mergeCell ref="A134:H134"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A131:G131"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A95:G95"/>
+    <mergeCell ref="A139:G139"/>
     <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A98:H98"/>
     <mergeCell ref="G12:I12"/>
-    <mergeCell ref="A103:G103"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A19:G19"/>
     <mergeCell ref="A22:H22"/>

--- a/generated_docs/WR_89856203_WeekEnding_081025.xlsx
+++ b/generated_docs/WR_89856203_WeekEnding_081025.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I139"/>
+  <dimension ref="A2:I103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/18/2025 09:48 PM</t>
+          <t>Report Generated On: 08/26/2025 10:01 AM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0</v>
+        <v>20555.96</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -643,11 +643,7 @@
           <t>Scope ID #:</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
-        <is>
-          <t>R25P146</t>
-        </is>
-      </c>
+      <c r="G10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="F11" s="4" t="inlineStr">
@@ -765,7 +761,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>0</v>
+        <v>216.17</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +795,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>0</v>
+        <v>216.17</v>
       </c>
     </row>
     <row r="18">
@@ -833,7 +829,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>0</v>
+        <v>216.17</v>
       </c>
     </row>
     <row r="19">
@@ -843,7 +839,7 @@
         </is>
       </c>
       <c r="H19" s="16" t="n">
-        <v>0</v>
+        <v>648.51</v>
       </c>
     </row>
     <row r="22">
@@ -926,7 +922,7 @@
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>0</v>
+        <v>350.53</v>
       </c>
     </row>
     <row r="25">
@@ -960,7 +956,7 @@
       </c>
       <c r="G25" s="13" t="inlineStr"/>
       <c r="H25" s="14" t="n">
-        <v>0</v>
+        <v>95.16</v>
       </c>
     </row>
     <row r="26">
@@ -994,7 +990,7 @@
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>0</v>
+        <v>63.44</v>
       </c>
     </row>
     <row r="27">
@@ -1028,7 +1024,7 @@
       </c>
       <c r="G27" s="13" t="inlineStr"/>
       <c r="H27" s="14" t="n">
-        <v>0</v>
+        <v>60.87</v>
       </c>
     </row>
     <row r="28">
@@ -1062,7 +1058,7 @@
       </c>
       <c r="G28" s="10" t="inlineStr"/>
       <c r="H28" s="11" t="n">
-        <v>0</v>
+        <v>20.29</v>
       </c>
     </row>
     <row r="29">
@@ -1073,7 +1069,7 @@
       </c>
       <c r="B29" s="12" t="inlineStr">
         <is>
-          <t>CND-HLC2</t>
+          <t>CND-S2O</t>
         </is>
       </c>
       <c r="C29" s="12" t="inlineStr">
@@ -1083,7 +1079,7 @@
       </c>
       <c r="D29" s="12" t="inlineStr">
         <is>
-          <t>CND,Hot Line clamp #6-#2</t>
+          <t>CND,Stirrup #2 Open</t>
         </is>
       </c>
       <c r="E29" s="12" t="inlineStr">
@@ -1096,7 +1092,7 @@
       </c>
       <c r="G29" s="13" t="inlineStr"/>
       <c r="H29" s="14" t="n">
-        <v>0</v>
+        <v>55.2</v>
       </c>
     </row>
     <row r="30">
@@ -1107,7 +1103,7 @@
       </c>
       <c r="B30" s="9" t="inlineStr">
         <is>
-          <t>CND-S2O</t>
+          <t>CON-10-AAA-1-B</t>
         </is>
       </c>
       <c r="C30" s="9" t="inlineStr">
@@ -1117,20 +1113,20 @@
       </c>
       <c r="D30" s="9" t="inlineStr">
         <is>
-          <t>CND,Stirrup #2 Open</t>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare</t>
         </is>
       </c>
       <c r="E30" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F30" s="10" t="n">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="G30" s="10" t="inlineStr"/>
       <c r="H30" s="11" t="n">
-        <v>0</v>
+        <v>102.96</v>
       </c>
     </row>
     <row r="31">
@@ -1141,7 +1137,7 @@
       </c>
       <c r="B31" s="12" t="inlineStr">
         <is>
-          <t>CON-10-AAA-1-B</t>
+          <t>CON-10-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C31" s="12" t="inlineStr">
@@ -1151,7 +1147,7 @@
       </c>
       <c r="D31" s="12" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare</t>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
         </is>
       </c>
       <c r="E31" s="12" t="inlineStr">
@@ -1160,11 +1156,11 @@
         </is>
       </c>
       <c r="F31" s="13" t="n">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="G31" s="13" t="inlineStr"/>
       <c r="H31" s="14" t="n">
-        <v>0</v>
+        <v>308.88</v>
       </c>
     </row>
     <row r="32">
@@ -1175,17 +1171,17 @@
       </c>
       <c r="B32" s="9" t="inlineStr">
         <is>
-          <t>CON-10-AAA-1-B-REEL</t>
+          <t>CON-4-AAA-1-B</t>
         </is>
       </c>
       <c r="C32" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D32" s="9" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+          <t>CON,#4 AWG,Alum Alloy,One,Bare</t>
         </is>
       </c>
       <c r="E32" s="9" t="inlineStr">
@@ -1194,11 +1190,11 @@
         </is>
       </c>
       <c r="F32" s="10" t="n">
-        <v>132</v>
+        <v>552</v>
       </c>
       <c r="G32" s="10" t="inlineStr"/>
       <c r="H32" s="11" t="n">
-        <v>0</v>
+        <v>513.36</v>
       </c>
     </row>
     <row r="33">
@@ -1209,30 +1205,30 @@
       </c>
       <c r="B33" s="12" t="inlineStr">
         <is>
-          <t>CON-4-AAA-1-B</t>
+          <t>DEG-10-SPA</t>
         </is>
       </c>
       <c r="C33" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D33" s="12" t="inlineStr">
         <is>
-          <t>CON,#4 AWG,Alum Alloy,One,Bare</t>
+          <t>DEG,1/0,Slack Span Alum</t>
         </is>
       </c>
       <c r="E33" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F33" s="13" t="n">
-        <v>552</v>
+        <v>1</v>
       </c>
       <c r="G33" s="13" t="inlineStr"/>
       <c r="H33" s="14" t="n">
-        <v>0</v>
+        <v>286.25</v>
       </c>
     </row>
     <row r="34">
@@ -1243,7 +1239,7 @@
       </c>
       <c r="B34" s="9" t="inlineStr">
         <is>
-          <t>DEG-10-SPA</t>
+          <t>DEG-10-SPAJ</t>
         </is>
       </c>
       <c r="C34" s="9" t="inlineStr">
@@ -1253,7 +1249,7 @@
       </c>
       <c r="D34" s="9" t="inlineStr">
         <is>
-          <t>DEG,1/0,Slack Span Alum</t>
+          <t>DEG, 1/0,Slack Span Alum for J-Neck Ins</t>
         </is>
       </c>
       <c r="E34" s="9" t="inlineStr">
@@ -1262,11 +1258,11 @@
         </is>
       </c>
       <c r="F34" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G34" s="10" t="inlineStr"/>
       <c r="H34" s="11" t="n">
-        <v>0</v>
+        <v>858.75</v>
       </c>
     </row>
     <row r="35">
@@ -1277,7 +1273,7 @@
       </c>
       <c r="B35" s="12" t="inlineStr">
         <is>
-          <t>DEG-10-SPAJ</t>
+          <t>EQL-1-4-C-2-S-X</t>
         </is>
       </c>
       <c r="C35" s="12" t="inlineStr">
@@ -1287,7 +1283,7 @@
       </c>
       <c r="D35" s="12" t="inlineStr">
         <is>
-          <t>DEG, 1/0,Slack Span Alum for J-Neck Ins</t>
+          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
         </is>
       </c>
       <c r="E35" s="12" t="inlineStr">
@@ -1296,11 +1292,11 @@
         </is>
       </c>
       <c r="F35" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G35" s="13" t="inlineStr"/>
       <c r="H35" s="14" t="n">
-        <v>0</v>
+        <v>446</v>
       </c>
     </row>
     <row r="36">
@@ -1311,7 +1307,7 @@
       </c>
       <c r="B36" s="9" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-2-S-X</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C36" s="9" t="inlineStr">
@@ -1321,7 +1317,7 @@
       </c>
       <c r="D36" s="9" t="inlineStr">
         <is>
-          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E36" s="9" t="inlineStr">
@@ -1330,11 +1326,11 @@
         </is>
       </c>
       <c r="F36" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G36" s="10" t="inlineStr"/>
       <c r="H36" s="11" t="n">
-        <v>0</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="37">
@@ -1345,7 +1341,7 @@
       </c>
       <c r="B37" s="12" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C37" s="12" t="inlineStr">
@@ -1355,7 +1351,7 @@
       </c>
       <c r="D37" s="12" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E37" s="12" t="inlineStr">
@@ -1364,11 +1360,11 @@
         </is>
       </c>
       <c r="F37" s="13" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G37" s="13" t="inlineStr"/>
       <c r="H37" s="14" t="n">
-        <v>0</v>
+        <v>565.02</v>
       </c>
     </row>
     <row r="38">
@@ -1379,7 +1375,7 @@
       </c>
       <c r="B38" s="9" t="inlineStr">
         <is>
-          <t>GND-MD</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C38" s="9" t="inlineStr">
@@ -1389,7 +1385,7 @@
       </c>
       <c r="D38" s="9" t="inlineStr">
         <is>
-          <t>GND,Wire Mldg Only</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E38" s="9" t="inlineStr">
@@ -1398,11 +1394,11 @@
         </is>
       </c>
       <c r="F38" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G38" s="10" t="inlineStr"/>
       <c r="H38" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="39">
@@ -1413,7 +1409,7 @@
       </c>
       <c r="B39" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C39" s="12" t="inlineStr">
@@ -1423,7 +1419,7 @@
       </c>
       <c r="D39" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E39" s="12" t="inlineStr">
@@ -1432,11 +1428,11 @@
         </is>
       </c>
       <c r="F39" s="13" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G39" s="13" t="inlineStr"/>
       <c r="H39" s="14" t="n">
-        <v>0</v>
+        <v>188.34</v>
       </c>
     </row>
     <row r="40">
@@ -1447,7 +1443,7 @@
       </c>
       <c r="B40" s="9" t="inlineStr">
         <is>
-          <t>JPR-10-AAA-1-B</t>
+          <t>POL-50-2</t>
         </is>
       </c>
       <c r="C40" s="9" t="inlineStr">
@@ -1457,7 +1453,7 @@
       </c>
       <c r="D40" s="9" t="inlineStr">
         <is>
-          <t>JPR,#1/0 AWG,Alum Alloy,One,Bare</t>
+          <t>Pole,50ft,Class 2</t>
         </is>
       </c>
       <c r="E40" s="9" t="inlineStr">
@@ -1466,11 +1462,11 @@
         </is>
       </c>
       <c r="F40" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G40" s="10" t="inlineStr"/>
       <c r="H40" s="11" t="n">
-        <v>0</v>
+        <v>631.14</v>
       </c>
     </row>
     <row r="41">
@@ -1481,7 +1477,7 @@
       </c>
       <c r="B41" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C41" s="12" t="inlineStr">
@@ -1491,7 +1487,7 @@
       </c>
       <c r="D41" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E41" s="12" t="inlineStr">
@@ -1500,11 +1496,11 @@
         </is>
       </c>
       <c r="F41" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G41" s="13" t="inlineStr"/>
       <c r="H41" s="14" t="n">
-        <v>0</v>
+        <v>110.36</v>
       </c>
     </row>
     <row r="42">
@@ -1515,7 +1511,7 @@
       </c>
       <c r="B42" s="9" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>SAA-DE-20</t>
         </is>
       </c>
       <c r="C42" s="9" t="inlineStr">
@@ -1525,7 +1521,7 @@
       </c>
       <c r="D42" s="9" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>SAA,DE Clamp #4-2/0</t>
         </is>
       </c>
       <c r="E42" s="9" t="inlineStr">
@@ -1534,11 +1530,11 @@
         </is>
       </c>
       <c r="F42" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G42" s="10" t="inlineStr"/>
       <c r="H42" s="11" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="43">
@@ -1549,7 +1545,7 @@
       </c>
       <c r="B43" s="12" t="inlineStr">
         <is>
-          <t>PLD-EYE</t>
+          <t>XCO-15-100-7</t>
         </is>
       </c>
       <c r="C43" s="12" t="inlineStr">
@@ -1559,7 +1555,7 @@
       </c>
       <c r="D43" s="12" t="inlineStr">
         <is>
-          <t>PLD,Eyebolt Deadend</t>
+          <t>XCO,15kVPolymer,100 Amp,7kA</t>
         </is>
       </c>
       <c r="E43" s="12" t="inlineStr">
@@ -1568,32 +1564,32 @@
         </is>
       </c>
       <c r="F43" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G43" s="13" t="inlineStr"/>
       <c r="H43" s="14" t="n">
-        <v>0</v>
+        <v>124.84</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="9" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B44" s="9" t="inlineStr">
         <is>
-          <t>POL-50-2</t>
+          <t>ARM-8S-60S</t>
         </is>
       </c>
       <c r="C44" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D44" s="9" t="inlineStr">
         <is>
-          <t>Pole,50ft,Class 2</t>
+          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
         </is>
       </c>
       <c r="E44" s="9" t="inlineStr">
@@ -1606,28 +1602,28 @@
       </c>
       <c r="G44" s="10" t="inlineStr"/>
       <c r="H44" s="11" t="n">
-        <v>0</v>
+        <v>61.83</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="12" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B45" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>BKT-AC18-F</t>
         </is>
       </c>
       <c r="C45" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D45" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
         </is>
       </c>
       <c r="E45" s="12" t="inlineStr">
@@ -1640,28 +1636,28 @@
       </c>
       <c r="G45" s="13" t="inlineStr"/>
       <c r="H45" s="14" t="n">
-        <v>0</v>
+        <v>34.74</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="9" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B46" s="9" t="inlineStr">
         <is>
-          <t>SAA-DE-20</t>
+          <t>BKT-PI24-F</t>
         </is>
       </c>
       <c r="C46" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D46" s="9" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0</t>
+          <t>BKT,Pin insulator 24in,Fbrgls</t>
         </is>
       </c>
       <c r="E46" s="9" t="inlineStr">
@@ -1670,32 +1666,32 @@
         </is>
       </c>
       <c r="F46" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G46" s="10" t="inlineStr"/>
       <c r="H46" s="11" t="n">
-        <v>0</v>
+        <v>52.11</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="12" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B47" s="12" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>CND-S2O</t>
         </is>
       </c>
       <c r="C47" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D47" s="12" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>CND,Stirrup #2 Open</t>
         </is>
       </c>
       <c r="E47" s="12" t="inlineStr">
@@ -1704,32 +1700,32 @@
         </is>
       </c>
       <c r="F47" s="13" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="G47" s="13" t="inlineStr"/>
       <c r="H47" s="14" t="n">
-        <v>0</v>
+        <v>12.34</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="9" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B48" s="9" t="inlineStr">
         <is>
-          <t>XCO-15-100-7</t>
+          <t>DEG-2-SPAJ</t>
         </is>
       </c>
       <c r="C48" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D48" s="9" t="inlineStr">
         <is>
-          <t>XCO,15kVPolymer,100 Amp,7kA</t>
+          <t>DEG,#2,Slack span Alum for J-neck</t>
         </is>
       </c>
       <c r="E48" s="9" t="inlineStr">
@@ -1738,11 +1734,11 @@
         </is>
       </c>
       <c r="F48" s="10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G48" s="10" t="inlineStr"/>
       <c r="H48" s="11" t="n">
-        <v>0</v>
+        <v>285.45</v>
       </c>
     </row>
     <row r="49">
@@ -1753,7 +1749,7 @@
       </c>
       <c r="B49" s="12" t="inlineStr">
         <is>
-          <t>ARM-8S-60S</t>
+          <t>DEG-4-SPA</t>
         </is>
       </c>
       <c r="C49" s="12" t="inlineStr">
@@ -1763,7 +1759,7 @@
       </c>
       <c r="D49" s="12" t="inlineStr">
         <is>
-          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
+          <t>DEG,#4,Slack Span Alum</t>
         </is>
       </c>
       <c r="E49" s="12" t="inlineStr">
@@ -1776,7 +1772,7 @@
       </c>
       <c r="G49" s="13" t="inlineStr"/>
       <c r="H49" s="14" t="n">
-        <v>0</v>
+        <v>95.15000000000001</v>
       </c>
     </row>
     <row r="50">
@@ -1787,7 +1783,7 @@
       </c>
       <c r="B50" s="9" t="inlineStr">
         <is>
-          <t>BKT-AC18-F</t>
+          <t>EQL-1-4-C-2-S-X</t>
         </is>
       </c>
       <c r="C50" s="9" t="inlineStr">
@@ -1797,7 +1793,7 @@
       </c>
       <c r="D50" s="9" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
+          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
         </is>
       </c>
       <c r="E50" s="9" t="inlineStr">
@@ -1810,7 +1806,7 @@
       </c>
       <c r="G50" s="10" t="inlineStr"/>
       <c r="H50" s="11" t="n">
-        <v>0</v>
+        <v>232</v>
       </c>
     </row>
     <row r="51">
@@ -1821,7 +1817,7 @@
       </c>
       <c r="B51" s="12" t="inlineStr">
         <is>
-          <t>BKT-PI24-F</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C51" s="12" t="inlineStr">
@@ -1831,7 +1827,7 @@
       </c>
       <c r="D51" s="12" t="inlineStr">
         <is>
-          <t>BKT,Pin insulator 24in,Fbrgls</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E51" s="12" t="inlineStr">
@@ -1840,11 +1836,11 @@
         </is>
       </c>
       <c r="F51" s="13" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G51" s="13" t="inlineStr"/>
       <c r="H51" s="14" t="n">
-        <v>0</v>
+        <v>186.48</v>
       </c>
     </row>
     <row r="52">
@@ -1855,7 +1851,7 @@
       </c>
       <c r="B52" s="9" t="inlineStr">
         <is>
-          <t>CND-HLC2</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C52" s="9" t="inlineStr">
@@ -1865,7 +1861,7 @@
       </c>
       <c r="D52" s="9" t="inlineStr">
         <is>
-          <t>CND,Hot Line clamp #6-#2</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E52" s="9" t="inlineStr">
@@ -1874,11 +1870,11 @@
         </is>
       </c>
       <c r="F52" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G52" s="10" t="inlineStr"/>
       <c r="H52" s="11" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="53">
@@ -1889,7 +1885,7 @@
       </c>
       <c r="B53" s="12" t="inlineStr">
         <is>
-          <t>CND-S2O</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C53" s="12" t="inlineStr">
@@ -1899,7 +1895,7 @@
       </c>
       <c r="D53" s="12" t="inlineStr">
         <is>
-          <t>CND,Stirrup #2 Open</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E53" s="12" t="inlineStr">
@@ -1912,7 +1908,7 @@
       </c>
       <c r="G53" s="13" t="inlineStr"/>
       <c r="H53" s="14" t="n">
-        <v>0</v>
+        <v>62.16</v>
       </c>
     </row>
     <row r="54">
@@ -1923,7 +1919,7 @@
       </c>
       <c r="B54" s="9" t="inlineStr">
         <is>
-          <t>DEG-2-SPAJ</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C54" s="9" t="inlineStr">
@@ -1933,7 +1929,7 @@
       </c>
       <c r="D54" s="9" t="inlineStr">
         <is>
-          <t>DEG,#2,Slack span Alum for J-neck</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E54" s="9" t="inlineStr">
@@ -1942,11 +1938,11 @@
         </is>
       </c>
       <c r="F54" s="10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G54" s="10" t="inlineStr"/>
       <c r="H54" s="11" t="n">
-        <v>0</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="55">
@@ -1957,7 +1953,7 @@
       </c>
       <c r="B55" s="12" t="inlineStr">
         <is>
-          <t>DEG-4-SPA</t>
+          <t>SAA-DE-20</t>
         </is>
       </c>
       <c r="C55" s="12" t="inlineStr">
@@ -1967,7 +1963,7 @@
       </c>
       <c r="D55" s="12" t="inlineStr">
         <is>
-          <t>DEG,#4,Slack Span Alum</t>
+          <t>SAA,DE Clamp #4-2/0</t>
         </is>
       </c>
       <c r="E55" s="12" t="inlineStr">
@@ -1976,11 +1972,11 @@
         </is>
       </c>
       <c r="F55" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G55" s="13" t="inlineStr"/>
       <c r="H55" s="14" t="n">
-        <v>0</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="56">
@@ -1991,7 +1987,7 @@
       </c>
       <c r="B56" s="9" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-2-S-X</t>
+          <t>XCO-15-100-7</t>
         </is>
       </c>
       <c r="C56" s="9" t="inlineStr">
@@ -2001,7 +1997,7 @@
       </c>
       <c r="D56" s="9" t="inlineStr">
         <is>
-          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
+          <t>XCO,15kVPolymer,100 Amp,7kA</t>
         </is>
       </c>
       <c r="E56" s="9" t="inlineStr">
@@ -2014,7 +2010,7 @@
       </c>
       <c r="G56" s="10" t="inlineStr"/>
       <c r="H56" s="11" t="n">
-        <v>0</v>
+        <v>53.04</v>
       </c>
     </row>
     <row r="57">
@@ -2025,7 +2021,7 @@
       </c>
       <c r="B57" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>XFR-25-72-120-1B</t>
         </is>
       </c>
       <c r="C57" s="12" t="inlineStr">
@@ -2035,7 +2031,7 @@
       </c>
       <c r="D57" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>XFR,25KVA,7.2/12.4kVY,120/240,1BG</t>
         </is>
       </c>
       <c r="E57" s="12" t="inlineStr">
@@ -2044,32 +2040,32 @@
         </is>
       </c>
       <c r="F57" s="13" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G57" s="13" t="inlineStr"/>
       <c r="H57" s="14" t="n">
-        <v>0</v>
+        <v>318</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="9" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B58" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>ARM-8SF-GN-DL</t>
         </is>
       </c>
       <c r="C58" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D58" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,DE Light</t>
         </is>
       </c>
       <c r="E58" s="9" t="inlineStr">
@@ -2082,28 +2078,28 @@
       </c>
       <c r="G58" s="10" t="inlineStr"/>
       <c r="H58" s="11" t="n">
-        <v>0</v>
+        <v>350.53</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="12" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B59" s="12" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>CNC-SNB-2</t>
         </is>
       </c>
       <c r="C59" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D59" s="12" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>CNC,Splice Non-Tension Bare,#6-#2</t>
         </is>
       </c>
       <c r="E59" s="12" t="inlineStr">
@@ -2112,100 +2108,100 @@
         </is>
       </c>
       <c r="F59" s="13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G59" s="13" t="inlineStr"/>
       <c r="H59" s="14" t="n">
-        <v>0</v>
+        <v>81.16</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="9" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B60" s="9" t="inlineStr">
         <is>
-          <t>PLD-EYE</t>
+          <t>CON-10-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C60" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D60" s="9" t="inlineStr">
         <is>
-          <t>PLD,Eyebolt Deadend</t>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
         </is>
       </c>
       <c r="E60" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F60" s="10" t="n">
-        <v>2</v>
+        <v>459</v>
       </c>
       <c r="G60" s="10" t="inlineStr"/>
       <c r="H60" s="11" t="n">
-        <v>0</v>
+        <v>1074.06</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="12" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B61" s="12" t="inlineStr">
         <is>
-          <t>POL-50-3</t>
+          <t>CON-10-AAA-3-P</t>
         </is>
       </c>
       <c r="C61" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D61" s="12" t="inlineStr">
         <is>
-          <t>Pole,50ft,Class 3</t>
+          <t>CON,#1/0 AWG,Alum Alloy,Three,Poly</t>
         </is>
       </c>
       <c r="E61" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F61" s="13" t="n">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="G61" s="13" t="inlineStr"/>
       <c r="H61" s="14" t="n">
-        <v>0</v>
+        <v>110.16</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="9" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B62" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>DEC-20AL</t>
         </is>
       </c>
       <c r="C62" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D62" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>DEC,#4 - #2/0 AA,AL,AS</t>
         </is>
       </c>
       <c r="E62" s="9" t="inlineStr">
@@ -2214,32 +2210,32 @@
         </is>
       </c>
       <c r="F62" s="10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G62" s="10" t="inlineStr"/>
       <c r="H62" s="11" t="n">
-        <v>0</v>
+        <v>858.75</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="12" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B63" s="12" t="inlineStr">
         <is>
-          <t>SAA-DE-20</t>
+          <t>DEG-10-SPA</t>
         </is>
       </c>
       <c r="C63" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D63" s="12" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0</t>
+          <t>DEG,1/0,Slack Span Alum</t>
         </is>
       </c>
       <c r="E63" s="12" t="inlineStr">
@@ -2248,32 +2244,32 @@
         </is>
       </c>
       <c r="F63" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G63" s="13" t="inlineStr"/>
       <c r="H63" s="14" t="n">
-        <v>0</v>
+        <v>286.25</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="9" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B64" s="9" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>DEG-10-SPAJ</t>
         </is>
       </c>
       <c r="C64" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D64" s="9" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>DEG, 1/0,Slack Span Alum for J-Neck Ins</t>
         </is>
       </c>
       <c r="E64" s="9" t="inlineStr">
@@ -2282,32 +2278,32 @@
         </is>
       </c>
       <c r="F64" s="10" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="G64" s="10" t="inlineStr"/>
       <c r="H64" s="11" t="n">
-        <v>0</v>
+        <v>858.75</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="12" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B65" s="12" t="inlineStr">
         <is>
-          <t>XCO-15-100-7</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C65" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D65" s="12" t="inlineStr">
         <is>
-          <t>XCO,15kVPolymer,100 Amp,7kA</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E65" s="12" t="inlineStr">
@@ -2316,32 +2312,32 @@
         </is>
       </c>
       <c r="F65" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G65" s="13" t="inlineStr"/>
       <c r="H65" s="14" t="n">
-        <v>0</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="9" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B66" s="9" t="inlineStr">
         <is>
-          <t>XFR-25-72-120-1B</t>
+          <t>GYF-38-D-78P-EP</t>
         </is>
       </c>
       <c r="C66" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D66" s="9" t="inlineStr">
         <is>
-          <t>XFR,25KVA,7.2/12.4kVY,120/240,1BG</t>
+          <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
         </is>
       </c>
       <c r="E66" s="9" t="inlineStr">
@@ -2354,7 +2350,7 @@
       </c>
       <c r="G66" s="10" t="inlineStr"/>
       <c r="H66" s="11" t="n">
-        <v>0</v>
+        <v>158.7</v>
       </c>
     </row>
     <row r="67">
@@ -2365,7 +2361,7 @@
       </c>
       <c r="B67" s="12" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-DL</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C67" s="12" t="inlineStr">
@@ -2375,7 +2371,7 @@
       </c>
       <c r="D67" s="12" t="inlineStr">
         <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,DE Light</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E67" s="12" t="inlineStr">
@@ -2388,7 +2384,7 @@
       </c>
       <c r="G67" s="13" t="inlineStr"/>
       <c r="H67" s="14" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="68">
@@ -2399,7 +2395,7 @@
       </c>
       <c r="B68" s="9" t="inlineStr">
         <is>
-          <t>CNC-SNB-2</t>
+          <t>SAA-DE-20</t>
         </is>
       </c>
       <c r="C68" s="9" t="inlineStr">
@@ -2409,7 +2405,7 @@
       </c>
       <c r="D68" s="9" t="inlineStr">
         <is>
-          <t>CNC,Splice Non-Tension Bare,#6-#2</t>
+          <t>SAA,DE Clamp #4-2/0</t>
         </is>
       </c>
       <c r="E68" s="9" t="inlineStr">
@@ -2418,100 +2414,100 @@
         </is>
       </c>
       <c r="F68" s="10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G68" s="10" t="inlineStr"/>
       <c r="H68" s="11" t="n">
-        <v>0</v>
+        <v>110.36</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="12" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B69" s="12" t="inlineStr">
         <is>
-          <t>CON-10-AAA-1-B-REEL</t>
+          <t>ANC-DHM-10-84-D1</t>
         </is>
       </c>
       <c r="C69" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D69" s="12" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+          <t>ANC,Dbl Hlx Mach,10in,84in,Db Eye 1in</t>
         </is>
       </c>
       <c r="E69" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F69" s="13" t="n">
-        <v>459</v>
+        <v>1</v>
       </c>
       <c r="G69" s="13" t="inlineStr"/>
       <c r="H69" s="14" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="9" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B70" s="9" t="inlineStr">
         <is>
-          <t>CON-10-AAA-3-P</t>
+          <t>ARM-8D-60S</t>
         </is>
       </c>
       <c r="C70" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D70" s="9" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,Three,Poly</t>
+          <t>ARM,8ft Double Wood,60in Sgl.Wd</t>
         </is>
       </c>
       <c r="E70" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F70" s="10" t="n">
-        <v>153</v>
+        <v>1</v>
       </c>
       <c r="G70" s="10" t="inlineStr"/>
       <c r="H70" s="11" t="n">
-        <v>0</v>
+        <v>73.73</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="12" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B71" s="12" t="inlineStr">
         <is>
-          <t>DEC-20AL</t>
+          <t>ARM-8S-60S</t>
         </is>
       </c>
       <c r="C71" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D71" s="12" t="inlineStr">
         <is>
-          <t>DEC,#4 - #2/0 AA,AL,AS</t>
+          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
         </is>
       </c>
       <c r="E71" s="12" t="inlineStr">
@@ -2520,100 +2516,100 @@
         </is>
       </c>
       <c r="F71" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G71" s="13" t="inlineStr"/>
       <c r="H71" s="14" t="n">
-        <v>0</v>
+        <v>61.83</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="9" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B72" s="9" t="inlineStr">
         <is>
-          <t>DEG-10-SPA</t>
+          <t>CON-4-AAA-1-B</t>
         </is>
       </c>
       <c r="C72" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D72" s="9" t="inlineStr">
         <is>
-          <t>DEG,1/0,Slack Span Alum</t>
+          <t>CON,#4 AWG,Alum Alloy,One,Bare</t>
         </is>
       </c>
       <c r="E72" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F72" s="10" t="n">
-        <v>1</v>
+        <v>544</v>
       </c>
       <c r="G72" s="10" t="inlineStr"/>
       <c r="H72" s="11" t="n">
-        <v>0</v>
+        <v>505.92</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="12" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B73" s="12" t="inlineStr">
         <is>
-          <t>DEG-10-SPAJ</t>
+          <t>CON-4-AAA-1-W</t>
         </is>
       </c>
       <c r="C73" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D73" s="12" t="inlineStr">
         <is>
-          <t>DEG, 1/0,Slack Span Alum for J-Neck Ins</t>
+          <t>CON,#4 AWG,Alum Alloy,One,WP</t>
         </is>
       </c>
       <c r="E73" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F73" s="13" t="n">
-        <v>3</v>
+        <v>272</v>
       </c>
       <c r="G73" s="13" t="inlineStr"/>
       <c r="H73" s="14" t="n">
-        <v>0</v>
+        <v>252.96</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="9" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B74" s="9" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>DEC-20AL</t>
         </is>
       </c>
       <c r="C74" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D74" s="9" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>DEC,#4 - #2/0 AA,AL,AS</t>
         </is>
       </c>
       <c r="E74" s="9" t="inlineStr">
@@ -2622,32 +2618,32 @@
         </is>
       </c>
       <c r="F74" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G74" s="10" t="inlineStr"/>
       <c r="H74" s="11" t="n">
-        <v>0</v>
+        <v>285.45</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="12" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B75" s="12" t="inlineStr">
         <is>
-          <t>GND-MD</t>
+          <t>DEG-2-SPAJ</t>
         </is>
       </c>
       <c r="C75" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D75" s="12" t="inlineStr">
         <is>
-          <t>GND,Wire Mldg Only</t>
+          <t>DEG,#2,Slack span Alum for J-neck</t>
         </is>
       </c>
       <c r="E75" s="12" t="inlineStr">
@@ -2656,32 +2652,32 @@
         </is>
       </c>
       <c r="F75" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G75" s="13" t="inlineStr"/>
       <c r="H75" s="14" t="n">
-        <v>0</v>
+        <v>285.45</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="9" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B76" s="9" t="inlineStr">
         <is>
-          <t>GYD-MPY</t>
+          <t>DEG-4-SPA</t>
         </is>
       </c>
       <c r="C76" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D76" s="9" t="inlineStr">
         <is>
-          <t>GYD,Marker-Plastic-Yellow</t>
+          <t>DEG,#4,Slack Span Alum</t>
         </is>
       </c>
       <c r="E76" s="9" t="inlineStr">
@@ -2694,13 +2690,13 @@
       </c>
       <c r="G76" s="10" t="inlineStr"/>
       <c r="H76" s="11" t="n">
-        <v>0</v>
+        <v>95.15000000000001</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="12" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B77" s="12" t="inlineStr">
@@ -2710,7 +2706,7 @@
       </c>
       <c r="C77" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D77" s="12" t="inlineStr">
@@ -2728,62 +2724,62 @@
       </c>
       <c r="G77" s="13" t="inlineStr"/>
       <c r="H77" s="14" t="n">
-        <v>0</v>
+        <v>71.16</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="9" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B78" s="9" t="inlineStr">
         <is>
-          <t>GYW-38</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C78" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D78" s="9" t="inlineStr">
         <is>
-          <t>GYW,3/8 in. EHS (15,400 lbs)</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E78" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F78" s="10" t="n">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="G78" s="10" t="inlineStr"/>
       <c r="H78" s="11" t="n">
-        <v>0</v>
+        <v>155.4</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="12" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B79" s="12" t="inlineStr">
         <is>
-          <t>JPR-10-AAA-1-B</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C79" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D79" s="12" t="inlineStr">
         <is>
-          <t>JPR,#1/0 AWG,Alum Alloy,One,Bare</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E79" s="12" t="inlineStr">
@@ -2792,32 +2788,32 @@
         </is>
       </c>
       <c r="F79" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G79" s="13" t="inlineStr"/>
       <c r="H79" s="14" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="9" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B80" s="9" t="inlineStr">
         <is>
-          <t>PLD-EYE</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C80" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D80" s="9" t="inlineStr">
         <is>
-          <t>PLD,Eyebolt Deadend</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E80" s="9" t="inlineStr">
@@ -2826,32 +2822,32 @@
         </is>
       </c>
       <c r="F80" s="10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G80" s="10" t="inlineStr"/>
       <c r="H80" s="11" t="n">
-        <v>0</v>
+        <v>124.32</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="12" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B81" s="12" t="inlineStr">
         <is>
-          <t>PLD-EYE-ARM</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C81" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D81" s="12" t="inlineStr">
         <is>
-          <t>PLD, Eyebolt Deadend, Arm</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E81" s="12" t="inlineStr">
@@ -2860,32 +2856,32 @@
         </is>
       </c>
       <c r="F81" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G81" s="13" t="inlineStr"/>
       <c r="H81" s="14" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="9" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B82" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>SAA-DE-20</t>
         </is>
       </c>
       <c r="C82" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D82" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>SAA,DE Clamp #4-2/0</t>
         </is>
       </c>
       <c r="E82" s="9" t="inlineStr">
@@ -2894,22 +2890,22 @@
         </is>
       </c>
       <c r="F82" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G82" s="10" t="inlineStr"/>
       <c r="H82" s="11" t="n">
-        <v>0</v>
+        <v>51.6</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="12" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 17</t>
         </is>
       </c>
       <c r="B83" s="12" t="inlineStr">
         <is>
-          <t>SAA-DE-20</t>
+          <t>ARM-8SF-GN-DL</t>
         </is>
       </c>
       <c r="C83" s="12" t="inlineStr">
@@ -2919,7 +2915,7 @@
       </c>
       <c r="D83" s="12" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0</t>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,DE Light</t>
         </is>
       </c>
       <c r="E83" s="12" t="inlineStr">
@@ -2928,22 +2924,22 @@
         </is>
       </c>
       <c r="F83" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G83" s="13" t="inlineStr"/>
       <c r="H83" s="14" t="n">
-        <v>0</v>
+        <v>350.53</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="9" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 17</t>
         </is>
       </c>
       <c r="B84" s="9" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>CNC-SNB-40</t>
         </is>
       </c>
       <c r="C84" s="9" t="inlineStr">
@@ -2953,7 +2949,7 @@
       </c>
       <c r="D84" s="9" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>CNC,Splice Non-Tension Bare,#1/0-#4/0</t>
         </is>
       </c>
       <c r="E84" s="9" t="inlineStr">
@@ -2962,32 +2958,32 @@
         </is>
       </c>
       <c r="F84" s="10" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G84" s="10" t="inlineStr"/>
       <c r="H84" s="11" t="n">
-        <v>0</v>
+        <v>60.87</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="12" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 17</t>
         </is>
       </c>
       <c r="B85" s="12" t="inlineStr">
         <is>
-          <t>ANC-DHM-10-84-D1</t>
+          <t>DEC-20AL</t>
         </is>
       </c>
       <c r="C85" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D85" s="12" t="inlineStr">
         <is>
-          <t>ANC,Dbl Hlx Mach,10in,84in,Db Eye 1in</t>
+          <t>DEC,#4 - #2/0 AA,AL,AS</t>
         </is>
       </c>
       <c r="E85" s="12" t="inlineStr">
@@ -2996,32 +2992,32 @@
         </is>
       </c>
       <c r="F85" s="13" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G85" s="13" t="inlineStr"/>
       <c r="H85" s="14" t="n">
-        <v>0</v>
+        <v>1717.5</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="9" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 17</t>
         </is>
       </c>
       <c r="B86" s="9" t="inlineStr">
         <is>
-          <t>ARM-8D-60S</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C86" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D86" s="9" t="inlineStr">
         <is>
-          <t>ARM,8ft Double Wood,60in Sgl.Wd</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E86" s="9" t="inlineStr">
@@ -3034,28 +3030,28 @@
       </c>
       <c r="G86" s="10" t="inlineStr"/>
       <c r="H86" s="11" t="n">
-        <v>0</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="12" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 17</t>
         </is>
       </c>
       <c r="B87" s="12" t="inlineStr">
         <is>
-          <t>ARM-8S-60S</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C87" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D87" s="12" t="inlineStr">
         <is>
-          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E87" s="12" t="inlineStr">
@@ -3064,32 +3060,32 @@
         </is>
       </c>
       <c r="F87" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G87" s="13" t="inlineStr"/>
       <c r="H87" s="14" t="n">
-        <v>0</v>
+        <v>282.51</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="9" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 17</t>
         </is>
       </c>
       <c r="B88" s="9" t="inlineStr">
         <is>
-          <t>ARM-BR-60S</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C88" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D88" s="9" t="inlineStr">
         <is>
-          <t>ARM,Brace only Wood,60in Sgl.Wd</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E88" s="9" t="inlineStr">
@@ -3098,56 +3094,56 @@
         </is>
       </c>
       <c r="F88" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G88" s="10" t="inlineStr"/>
       <c r="H88" s="11" t="n">
-        <v>0</v>
+        <v>282.51</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="12" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 17</t>
         </is>
       </c>
       <c r="B89" s="12" t="inlineStr">
         <is>
-          <t>CON-4-AAA-1-B</t>
+          <t>SAA-DE-20</t>
         </is>
       </c>
       <c r="C89" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D89" s="12" t="inlineStr">
         <is>
-          <t>CON,#4 AWG,Alum Alloy,One,Bare</t>
+          <t>SAA,DE Clamp #4-2/0</t>
         </is>
       </c>
       <c r="E89" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F89" s="13" t="n">
-        <v>544</v>
+        <v>6</v>
       </c>
       <c r="G89" s="13" t="inlineStr"/>
       <c r="H89" s="14" t="n">
-        <v>0</v>
+        <v>331.08</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="9" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 18</t>
         </is>
       </c>
       <c r="B90" s="9" t="inlineStr">
         <is>
-          <t>CON-4-AAA-1-W</t>
+          <t>ARM-8D-60S</t>
         </is>
       </c>
       <c r="C90" s="9" t="inlineStr">
@@ -3157,26 +3153,26 @@
       </c>
       <c r="D90" s="9" t="inlineStr">
         <is>
-          <t>CON,#4 AWG,Alum Alloy,One,WP</t>
+          <t>ARM,8ft Double Wood,60in Sgl.Wd</t>
         </is>
       </c>
       <c r="E90" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F90" s="10" t="n">
-        <v>272</v>
+        <v>1</v>
       </c>
       <c r="G90" s="10" t="inlineStr"/>
       <c r="H90" s="11" t="n">
-        <v>0</v>
+        <v>73.73</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="12" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 18</t>
         </is>
       </c>
       <c r="B91" s="12" t="inlineStr">
@@ -3200,22 +3196,22 @@
         </is>
       </c>
       <c r="F91" s="13" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G91" s="13" t="inlineStr"/>
       <c r="H91" s="14" t="n">
-        <v>0</v>
+        <v>570.9</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="9" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 18</t>
         </is>
       </c>
       <c r="B92" s="9" t="inlineStr">
         <is>
-          <t>DEG-2-SPAJ</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C92" s="9" t="inlineStr">
@@ -3225,7 +3221,7 @@
       </c>
       <c r="D92" s="9" t="inlineStr">
         <is>
-          <t>DEG,#2,Slack span Alum for J-neck</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E92" s="9" t="inlineStr">
@@ -3238,18 +3234,18 @@
       </c>
       <c r="G92" s="10" t="inlineStr"/>
       <c r="H92" s="11" t="n">
-        <v>0</v>
+        <v>93.23999999999999</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="12" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 18</t>
         </is>
       </c>
       <c r="B93" s="12" t="inlineStr">
         <is>
-          <t>DEG-4-SPA</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C93" s="12" t="inlineStr">
@@ -3259,7 +3255,7 @@
       </c>
       <c r="D93" s="12" t="inlineStr">
         <is>
-          <t>DEG,#4,Slack Span Alum</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E93" s="12" t="inlineStr">
@@ -3268,22 +3264,22 @@
         </is>
       </c>
       <c r="F93" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G93" s="13" t="inlineStr"/>
       <c r="H93" s="14" t="n">
-        <v>0</v>
+        <v>93.23999999999999</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="9" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 18</t>
         </is>
       </c>
       <c r="B94" s="9" t="inlineStr">
         <is>
-          <t>GYD-MPY</t>
+          <t>SAA-DE-20</t>
         </is>
       </c>
       <c r="C94" s="9" t="inlineStr">
@@ -3293,7 +3289,7 @@
       </c>
       <c r="D94" s="9" t="inlineStr">
         <is>
-          <t>GYD,Marker-Plastic-Yellow</t>
+          <t>SAA,DE Clamp #4-2/0</t>
         </is>
       </c>
       <c r="E94" s="9" t="inlineStr">
@@ -3302,202 +3298,91 @@
         </is>
       </c>
       <c r="F94" s="10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G94" s="10" t="inlineStr"/>
       <c r="H94" s="11" t="n">
-        <v>0</v>
+        <v>68.8</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="12" t="inlineStr">
-        <is>
-          <t>Point 16</t>
-        </is>
-      </c>
-      <c r="B95" s="12" t="inlineStr">
-        <is>
-          <t>GYF-38-D-78P-EP</t>
-        </is>
-      </c>
-      <c r="C95" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D95" s="12" t="inlineStr">
-        <is>
-          <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
-        </is>
-      </c>
-      <c r="E95" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F95" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G95" s="13" t="inlineStr"/>
-      <c r="H95" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="9" t="inlineStr">
-        <is>
-          <t>Point 16</t>
-        </is>
-      </c>
-      <c r="B96" s="9" t="inlineStr">
-        <is>
-          <t>GYW-38</t>
-        </is>
-      </c>
-      <c r="C96" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D96" s="9" t="inlineStr">
-        <is>
-          <t>GYW,3/8 in. EHS (15,400 lbs)</t>
-        </is>
-      </c>
-      <c r="E96" s="9" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F96" s="10" t="n">
-        <v>80</v>
-      </c>
-      <c r="G96" s="10" t="inlineStr"/>
-      <c r="H96" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="12" t="inlineStr">
-        <is>
-          <t>Point 16</t>
-        </is>
-      </c>
-      <c r="B97" s="12" t="inlineStr">
-        <is>
-          <t>INS-15-D-S-C</t>
-        </is>
-      </c>
-      <c r="C97" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D97" s="12" t="inlineStr">
-        <is>
-          <t>INS,15kV,Deadend,Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E97" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F97" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="G97" s="13" t="inlineStr"/>
-      <c r="H97" s="14" t="n">
-        <v>0</v>
+      <c r="A95" s="15" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="H95" s="16" t="n">
+        <v>16664.8</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="9" t="inlineStr">
-        <is>
-          <t>Point 16</t>
-        </is>
-      </c>
-      <c r="B98" s="9" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C98" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D98" s="9" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E98" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F98" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="G98" s="10" t="inlineStr"/>
-      <c r="H98" s="11" t="n">
-        <v>0</v>
+      <c r="A98" s="7" t="inlineStr">
+        <is>
+          <t>Friday (08/08/2025)</t>
+        </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="12" t="inlineStr">
-        <is>
-          <t>Point 16</t>
-        </is>
-      </c>
-      <c r="B99" s="12" t="inlineStr">
-        <is>
-          <t>PIN-15-PTP-K</t>
-        </is>
-      </c>
-      <c r="C99" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D99" s="12" t="inlineStr">
-        <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
-        </is>
-      </c>
-      <c r="E99" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F99" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G99" s="13" t="inlineStr"/>
-      <c r="H99" s="14" t="n">
-        <v>0</v>
+      <c r="A99" s="8" t="inlineStr">
+        <is>
+          <t>Point Number</t>
+        </is>
+      </c>
+      <c r="B99" s="8" t="inlineStr">
+        <is>
+          <t>Billable Unit Code</t>
+        </is>
+      </c>
+      <c r="C99" s="8" t="inlineStr">
+        <is>
+          <t>Work Type</t>
+        </is>
+      </c>
+      <c r="D99" s="8" t="inlineStr">
+        <is>
+          <t>Unit Description</t>
+        </is>
+      </c>
+      <c r="E99" s="8" t="inlineStr">
+        <is>
+          <t>Unit of Measure</t>
+        </is>
+      </c>
+      <c r="F99" s="8" t="inlineStr">
+        <is>
+          <t># Units</t>
+        </is>
+      </c>
+      <c r="G99" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H99" s="8" t="inlineStr">
+        <is>
+          <t>Pricing</t>
+        </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="9" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B100" s="9" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>PLA-HDIG</t>
         </is>
       </c>
       <c r="C100" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D100" s="9" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
       <c r="E100" s="9" t="inlineStr">
@@ -3506,32 +3391,32 @@
         </is>
       </c>
       <c r="F100" s="10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G100" s="10" t="inlineStr"/>
       <c r="H100" s="11" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="12" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B101" s="12" t="inlineStr">
         <is>
-          <t>PLD-EYE</t>
+          <t>PLA-HDIG</t>
         </is>
       </c>
       <c r="C101" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D101" s="12" t="inlineStr">
         <is>
-          <t>PLD,Eyebolt Deadend</t>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
       <c r="E101" s="12" t="inlineStr">
@@ -3540,32 +3425,32 @@
         </is>
       </c>
       <c r="F101" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G101" s="13" t="inlineStr"/>
       <c r="H101" s="14" t="n">
-        <v>0</v>
+        <v>1297.06</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="9" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B102" s="9" t="inlineStr">
         <is>
-          <t>PLD-EYE-ARM</t>
+          <t>PLA-HDIG</t>
         </is>
       </c>
       <c r="C102" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D102" s="9" t="inlineStr">
         <is>
-          <t>PLD, Eyebolt Deadend, Arm</t>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
       <c r="E102" s="9" t="inlineStr">
@@ -3574,1150 +3459,37 @@
         </is>
       </c>
       <c r="F102" s="10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G102" s="10" t="inlineStr"/>
       <c r="H102" s="11" t="n">
-        <v>0</v>
+        <v>1297.06</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="12" t="inlineStr">
-        <is>
-          <t>Point 16</t>
-        </is>
-      </c>
-      <c r="B103" s="12" t="inlineStr">
-        <is>
-          <t>POL-40-3</t>
-        </is>
-      </c>
-      <c r="C103" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D103" s="12" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 3</t>
-        </is>
-      </c>
-      <c r="E103" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F103" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G103" s="13" t="inlineStr"/>
-      <c r="H103" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="9" t="inlineStr">
-        <is>
-          <t>Point 16</t>
-        </is>
-      </c>
-      <c r="B104" s="9" t="inlineStr">
-        <is>
-          <t>SAA-3-CV</t>
-        </is>
-      </c>
-      <c r="C104" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D104" s="9" t="inlineStr">
-        <is>
-          <t>SAA,3 inch,Clevis</t>
-        </is>
-      </c>
-      <c r="E104" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F104" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G104" s="10" t="inlineStr"/>
-      <c r="H104" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="12" t="inlineStr">
-        <is>
-          <t>Point 16</t>
-        </is>
-      </c>
-      <c r="B105" s="12" t="inlineStr">
-        <is>
-          <t>SAA-DE-20</t>
-        </is>
-      </c>
-      <c r="C105" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D105" s="12" t="inlineStr">
-        <is>
-          <t>SAA,DE Clamp #4-2/0</t>
-        </is>
-      </c>
-      <c r="E105" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F105" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="G105" s="13" t="inlineStr"/>
-      <c r="H105" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="9" t="inlineStr">
-        <is>
-          <t>Point 16</t>
-        </is>
-      </c>
-      <c r="B106" s="9" t="inlineStr">
-        <is>
-          <t>TIE-4-ALH-F</t>
-        </is>
-      </c>
-      <c r="C106" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D106" s="9" t="inlineStr">
-        <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
-        </is>
-      </c>
-      <c r="E106" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F106" s="10" t="n">
-        <v>12</v>
-      </c>
-      <c r="G106" s="10" t="inlineStr"/>
-      <c r="H106" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="12" t="inlineStr">
-        <is>
-          <t>Point 17</t>
-        </is>
-      </c>
-      <c r="B107" s="12" t="inlineStr">
-        <is>
-          <t>ARM-8SF-GN-DL</t>
-        </is>
-      </c>
-      <c r="C107" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D107" s="12" t="inlineStr">
-        <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,DE Light</t>
-        </is>
-      </c>
-      <c r="E107" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F107" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G107" s="13" t="inlineStr"/>
-      <c r="H107" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="9" t="inlineStr">
-        <is>
-          <t>Point 17</t>
-        </is>
-      </c>
-      <c r="B108" s="9" t="inlineStr">
-        <is>
-          <t>CNC-SNB-40</t>
-        </is>
-      </c>
-      <c r="C108" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D108" s="9" t="inlineStr">
-        <is>
-          <t>CNC,Splice Non-Tension Bare,#1/0-#4/0</t>
-        </is>
-      </c>
-      <c r="E108" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F108" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G108" s="10" t="inlineStr"/>
-      <c r="H108" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="12" t="inlineStr">
-        <is>
-          <t>Point 17</t>
-        </is>
-      </c>
-      <c r="B109" s="12" t="inlineStr">
-        <is>
-          <t>DEC-20AL</t>
-        </is>
-      </c>
-      <c r="C109" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D109" s="12" t="inlineStr">
-        <is>
-          <t>DEC,#4 - #2/0 AA,AL,AS</t>
-        </is>
-      </c>
-      <c r="E109" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F109" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="G109" s="13" t="inlineStr"/>
-      <c r="H109" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="9" t="inlineStr">
-        <is>
-          <t>Point 17</t>
-        </is>
-      </c>
-      <c r="B110" s="9" t="inlineStr">
-        <is>
-          <t>GND-CR-4</t>
-        </is>
-      </c>
-      <c r="C110" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D110" s="9" t="inlineStr">
-        <is>
-          <t>GND,Cu Clad Rod,#4</t>
-        </is>
-      </c>
-      <c r="E110" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F110" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G110" s="10" t="inlineStr"/>
-      <c r="H110" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="12" t="inlineStr">
-        <is>
-          <t>Point 17</t>
-        </is>
-      </c>
-      <c r="B111" s="12" t="inlineStr">
-        <is>
-          <t>GND-MD</t>
-        </is>
-      </c>
-      <c r="C111" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D111" s="12" t="inlineStr">
-        <is>
-          <t>GND,Wire Mldg Only</t>
-        </is>
-      </c>
-      <c r="E111" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F111" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G111" s="13" t="inlineStr"/>
-      <c r="H111" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="9" t="inlineStr">
-        <is>
-          <t>Point 17</t>
-        </is>
-      </c>
-      <c r="B112" s="9" t="inlineStr">
-        <is>
-          <t>INS-15-D-S-C</t>
-        </is>
-      </c>
-      <c r="C112" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D112" s="9" t="inlineStr">
-        <is>
-          <t>INS,15kV,Deadend,Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E112" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F112" s="10" t="n">
-        <v>6</v>
-      </c>
-      <c r="G112" s="10" t="inlineStr"/>
-      <c r="H112" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="12" t="inlineStr">
-        <is>
-          <t>Point 17</t>
-        </is>
-      </c>
-      <c r="B113" s="12" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C113" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D113" s="12" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E113" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F113" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="G113" s="13" t="inlineStr"/>
-      <c r="H113" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="9" t="inlineStr">
-        <is>
-          <t>Point 17</t>
-        </is>
-      </c>
-      <c r="B114" s="9" t="inlineStr">
-        <is>
-          <t>PIN-XAA</t>
-        </is>
-      </c>
-      <c r="C114" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D114" s="9" t="inlineStr">
-        <is>
-          <t>Pin,Crossarm,8in</t>
-        </is>
-      </c>
-      <c r="E114" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F114" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G114" s="10" t="inlineStr"/>
-      <c r="H114" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="12" t="inlineStr">
-        <is>
-          <t>Point 17</t>
-        </is>
-      </c>
-      <c r="B115" s="12" t="inlineStr">
-        <is>
-          <t>PLD-EYE</t>
-        </is>
-      </c>
-      <c r="C115" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D115" s="12" t="inlineStr">
-        <is>
-          <t>PLD,Eyebolt Deadend</t>
-        </is>
-      </c>
-      <c r="E115" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F115" s="13" t="n">
-        <v>8</v>
-      </c>
-      <c r="G115" s="13" t="inlineStr"/>
-      <c r="H115" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="9" t="inlineStr">
-        <is>
-          <t>Point 17</t>
-        </is>
-      </c>
-      <c r="B116" s="9" t="inlineStr">
-        <is>
-          <t>PLD-EYE-ARM</t>
-        </is>
-      </c>
-      <c r="C116" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D116" s="9" t="inlineStr">
-        <is>
-          <t>PLD, Eyebolt Deadend, Arm</t>
-        </is>
-      </c>
-      <c r="E116" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F116" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="G116" s="10" t="inlineStr"/>
-      <c r="H116" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="12" t="inlineStr">
-        <is>
-          <t>Point 17</t>
-        </is>
-      </c>
-      <c r="B117" s="12" t="inlineStr">
-        <is>
-          <t>SAA-DE-20</t>
-        </is>
-      </c>
-      <c r="C117" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D117" s="12" t="inlineStr">
-        <is>
-          <t>SAA,DE Clamp #4-2/0</t>
-        </is>
-      </c>
-      <c r="E117" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F117" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="G117" s="13" t="inlineStr"/>
-      <c r="H117" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="9" t="inlineStr">
-        <is>
-          <t>Point 17</t>
-        </is>
-      </c>
-      <c r="B118" s="9" t="inlineStr">
-        <is>
-          <t>TIE-4-ALH-F</t>
-        </is>
-      </c>
-      <c r="C118" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D118" s="9" t="inlineStr">
-        <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
-        </is>
-      </c>
-      <c r="E118" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F118" s="10" t="n">
-        <v>6</v>
-      </c>
-      <c r="G118" s="10" t="inlineStr"/>
-      <c r="H118" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="12" t="inlineStr">
-        <is>
-          <t>Point 17</t>
-        </is>
-      </c>
-      <c r="B119" s="12" t="inlineStr">
-        <is>
-          <t>TIE-6-ALH-F</t>
-        </is>
-      </c>
-      <c r="C119" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D119" s="12" t="inlineStr">
-        <is>
-          <t>TIE,6 AWG,AL Hand Tie,F Neck</t>
-        </is>
-      </c>
-      <c r="E119" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F119" s="13" t="n">
-        <v>12</v>
-      </c>
-      <c r="G119" s="13" t="inlineStr"/>
-      <c r="H119" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="9" t="inlineStr">
-        <is>
-          <t>Point 18</t>
-        </is>
-      </c>
-      <c r="B120" s="9" t="inlineStr">
-        <is>
-          <t>ARM-8D-60S</t>
-        </is>
-      </c>
-      <c r="C120" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D120" s="9" t="inlineStr">
-        <is>
-          <t>ARM,8ft Double Wood,60in Sgl.Wd</t>
-        </is>
-      </c>
-      <c r="E120" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F120" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G120" s="10" t="inlineStr"/>
-      <c r="H120" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="12" t="inlineStr">
-        <is>
-          <t>Point 18</t>
-        </is>
-      </c>
-      <c r="B121" s="12" t="inlineStr">
-        <is>
-          <t>ARM-BR-60S</t>
-        </is>
-      </c>
-      <c r="C121" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D121" s="12" t="inlineStr">
-        <is>
-          <t>ARM,Brace only Wood,60in Sgl.Wd</t>
-        </is>
-      </c>
-      <c r="E121" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F121" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G121" s="13" t="inlineStr"/>
-      <c r="H121" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="9" t="inlineStr">
-        <is>
-          <t>Point 18</t>
-        </is>
-      </c>
-      <c r="B122" s="9" t="inlineStr">
-        <is>
-          <t>DEC-20AL</t>
-        </is>
-      </c>
-      <c r="C122" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D122" s="9" t="inlineStr">
-        <is>
-          <t>DEC,#4 - #2/0 AA,AL,AS</t>
-        </is>
-      </c>
-      <c r="E122" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F122" s="10" t="n">
-        <v>6</v>
-      </c>
-      <c r="G122" s="10" t="inlineStr"/>
-      <c r="H122" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="12" t="inlineStr">
-        <is>
-          <t>Point 18</t>
-        </is>
-      </c>
-      <c r="B123" s="12" t="inlineStr">
-        <is>
-          <t>INS-15-D-S-C</t>
-        </is>
-      </c>
-      <c r="C123" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D123" s="12" t="inlineStr">
-        <is>
-          <t>INS,15kV,Deadend,Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E123" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F123" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="G123" s="13" t="inlineStr"/>
-      <c r="H123" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="9" t="inlineStr">
-        <is>
-          <t>Point 18</t>
-        </is>
-      </c>
-      <c r="B124" s="9" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C124" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D124" s="9" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E124" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F124" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G124" s="10" t="inlineStr"/>
-      <c r="H124" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="12" t="inlineStr">
-        <is>
-          <t>Point 18</t>
-        </is>
-      </c>
-      <c r="B125" s="12" t="inlineStr">
-        <is>
-          <t>PIN-XAA</t>
-        </is>
-      </c>
-      <c r="C125" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D125" s="12" t="inlineStr">
-        <is>
-          <t>Pin,Crossarm,8in</t>
-        </is>
-      </c>
-      <c r="E125" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F125" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="G125" s="13" t="inlineStr"/>
-      <c r="H125" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="9" t="inlineStr">
-        <is>
-          <t>Point 18</t>
-        </is>
-      </c>
-      <c r="B126" s="9" t="inlineStr">
-        <is>
-          <t>PLD-EYE</t>
-        </is>
-      </c>
-      <c r="C126" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D126" s="9" t="inlineStr">
-        <is>
-          <t>PLD,Eyebolt Deadend</t>
-        </is>
-      </c>
-      <c r="E126" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F126" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="G126" s="10" t="inlineStr"/>
-      <c r="H126" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="12" t="inlineStr">
-        <is>
-          <t>Point 18</t>
-        </is>
-      </c>
-      <c r="B127" s="12" t="inlineStr">
-        <is>
-          <t>PLD-EYE-ARM</t>
-        </is>
-      </c>
-      <c r="C127" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D127" s="12" t="inlineStr">
-        <is>
-          <t>PLD, Eyebolt Deadend, Arm</t>
-        </is>
-      </c>
-      <c r="E127" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F127" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="G127" s="13" t="inlineStr"/>
-      <c r="H127" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="9" t="inlineStr">
-        <is>
-          <t>Point 18</t>
-        </is>
-      </c>
-      <c r="B128" s="9" t="inlineStr">
-        <is>
-          <t>POL-40-5</t>
-        </is>
-      </c>
-      <c r="C128" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D128" s="9" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 5</t>
-        </is>
-      </c>
-      <c r="E128" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F128" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G128" s="10" t="inlineStr"/>
-      <c r="H128" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="12" t="inlineStr">
-        <is>
-          <t>Point 18</t>
-        </is>
-      </c>
-      <c r="B129" s="12" t="inlineStr">
-        <is>
-          <t>SAA-DE-20</t>
-        </is>
-      </c>
-      <c r="C129" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D129" s="12" t="inlineStr">
-        <is>
-          <t>SAA,DE Clamp #4-2/0</t>
-        </is>
-      </c>
-      <c r="E129" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F129" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="G129" s="13" t="inlineStr"/>
-      <c r="H129" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="9" t="inlineStr">
-        <is>
-          <t>Point 18</t>
-        </is>
-      </c>
-      <c r="B130" s="9" t="inlineStr">
-        <is>
-          <t>TIE-4-ALH-F</t>
-        </is>
-      </c>
-      <c r="C130" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D130" s="9" t="inlineStr">
-        <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
-        </is>
-      </c>
-      <c r="E130" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F130" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="G130" s="10" t="inlineStr"/>
-      <c r="H130" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="15" t="inlineStr">
+      <c r="A103" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H131" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="7" t="inlineStr">
-        <is>
-          <t>Friday (08/08/2025)</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="8" t="inlineStr">
-        <is>
-          <t>Point Number</t>
-        </is>
-      </c>
-      <c r="B135" s="8" t="inlineStr">
-        <is>
-          <t>Billable Unit Code</t>
-        </is>
-      </c>
-      <c r="C135" s="8" t="inlineStr">
-        <is>
-          <t>Work Type</t>
-        </is>
-      </c>
-      <c r="D135" s="8" t="inlineStr">
-        <is>
-          <t>Unit Description</t>
-        </is>
-      </c>
-      <c r="E135" s="8" t="inlineStr">
-        <is>
-          <t>Unit of Measure</t>
-        </is>
-      </c>
-      <c r="F135" s="8" t="inlineStr">
-        <is>
-          <t># Units</t>
-        </is>
-      </c>
-      <c r="G135" s="8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H135" s="8" t="inlineStr">
-        <is>
-          <t>Pricing</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="9" t="inlineStr">
-        <is>
-          <t>Point 11</t>
-        </is>
-      </c>
-      <c r="B136" s="9" t="inlineStr">
-        <is>
-          <t>PLA-HDIG</t>
-        </is>
-      </c>
-      <c r="C136" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D136" s="9" t="inlineStr">
-        <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
-        </is>
-      </c>
-      <c r="E136" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F136" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G136" s="10" t="inlineStr"/>
-      <c r="H136" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="12" t="inlineStr">
-        <is>
-          <t>Point 13</t>
-        </is>
-      </c>
-      <c r="B137" s="12" t="inlineStr">
-        <is>
-          <t>PLA-HDIG</t>
-        </is>
-      </c>
-      <c r="C137" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D137" s="12" t="inlineStr">
-        <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
-        </is>
-      </c>
-      <c r="E137" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F137" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G137" s="13" t="inlineStr"/>
-      <c r="H137" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="9" t="inlineStr">
-        <is>
-          <t>Point 15</t>
-        </is>
-      </c>
-      <c r="B138" s="9" t="inlineStr">
-        <is>
-          <t>PLA-HDIG</t>
-        </is>
-      </c>
-      <c r="C138" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D138" s="9" t="inlineStr">
-        <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
-        </is>
-      </c>
-      <c r="E138" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F138" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G138" s="10" t="inlineStr"/>
-      <c r="H138" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="15" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="H139" s="16" t="n">
-        <v>0</v>
+      <c r="H103" s="16" t="n">
+        <v>3242.65</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
     <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A134:H134"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A131:G131"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A139:G139"/>
+    <mergeCell ref="A95:G95"/>
     <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A98:H98"/>
     <mergeCell ref="G12:I12"/>
+    <mergeCell ref="A103:G103"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A19:G19"/>
     <mergeCell ref="A22:H22"/>
